--- a/artifacts/recipes/new_data/allrecipescom/vegan/vegan_main-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/vegan/vegan_main-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656347-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Vegan Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656350-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kFtfV1OBJSGfetetJSbw6w84IGA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4462539-a9e952b640a24fd99cd1f3fbf1e8f6b5.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245424/mujadarra-lentils-with-rice/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mujadarra (Lentils with Rice)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"14 ounces dry brown lentils\n\n\n2  carrots, grated\n\n\n3 tablespoons olive oil\n\n\n2  onions, thinly sliced\n\n\n3 cloves garlic, crushed, or more to taste\n\n\n2 tablespoons water, or more as needed\n\n\n1 ½ teaspoons ground cumin\n\n\n¼ teaspoon ground cayenne pepper (Optional)\n\n\n¼ teaspoon yellow curry powder (Optional)\n\n\n4 cups cooked brown rice, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '14 ounces dry brown lentils\n\n\n2  carrots, grated\n\n\n3 tablespoons olive oil\n\n\n2  onions, thinly sliced\n\n\n3 cloves garlic, crushed, or more to taste\n\n\n2 tablespoons water, or more as needed\n\n\n1 ½ teaspoons ground cumin\n\n\n¼ teaspoon ground cayenne pepper (Optional)\n\n\n¼ teaspoon yellow curry powder (Optional)\n\n\n4 cups cooked brown rice, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water; add lentils and bring to a rolling boil. Cook until slightly tender, about 10 minutes. Add grated carrots; cook until slightly softened, about 10 minutes. Drain lentils and carrots."},{"recipe_directions":"Heat olive oil in the same pot over medium heat; add onions and garlic. Cook and stir until onions wilt and become transparent, 5 to 7 minutes. Stir in lentils and carrots and reduce heat to medium-low. Add enough water to the pot to keep the lentil mixture from drying out."},{"recipe_directions":"Sprinkle cumin, cayenne, curry powder, salt, and pepper over lentils; stir until heated through and fragrant, about 5 minutes. Serve over rice."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"350\nCalories\n\n\n7g \nFat\n\n\n57g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656354-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W9mHcPou6mVDzDddPy42J4x0Zwo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7635186-b19c65c663664123b52b99a1070703ca.jpg"
@@ -268,59 +605,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278267/beyond-beef-vegan-meatballs/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Beyond Beef Vegan Meatballs</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n8 \n\n\nYield:\n48 meatballs"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) package frozen chopped spinach\n\n\n2 tablespoons water\n\n\n2 (16 ounce) packages Beyond Meat® Beyond Beef® plant-based ground\n\n\n¾ cup nutritional yeast\n\n\n¾ cup vegan bread crumbs (such as Aleia's)\n\n\n4 tablespoons tomato paste\n\n\n5 cloves garlic, minced\n\n\n1 tablespoon dried oregano leaves\n\n\n1 tablespoon dried basil leaves\n\n\n1 teaspoon onion powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n4 tablespoons olive oil, divided, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (10 ounce) package frozen chopped spinach\n\n\n2 tablespoons water\n\n\n2 (16 ounce) packages Beyond Meat® Beyond Beef® plant-based ground\n\n\n¾ cup nutritional yeast\n\n\n¾ cup vegan bread crumbs (such as Aleia's)\n\n\n4 tablespoons tomato paste\n\n\n5 cloves garlic, minced\n\n\n1 tablespoon dried oregano leaves\n\n\n1 tablespoon dried basil leaves\n\n\n1 teaspoon onion powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n4 tablespoons olive oil, divided, or more as needed"}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine frozen spinach and water in a 1-quart microwave-safe casserole dish. Cover and microwave on high for 5 minutes, stirring halfway through the cooking time. Break up any clumps with a fork and cook for 1 more minute. Transfer to a colander to drain. When cool enough to handle, squeeze small handfuls of spinach to release remaining water and place spinach in a large mixing bowl."},{"recipe_directions":"Add Beyond Beef, nutritional yeast, bread crumbs, tomato paste, minced garlic, oregano, basil, onion powder, salt, and pepper to the spinach. Mix with your hands until all ingredients are thoroughly combined. Roll into 1 1/4-inch diameter meatballs."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Line a large rimmed baking sheet with parchment paper."},{"recipe_directions":"Heat 1 tablespoon olive oil over medium heat in a large Dutch oven. Working in batches, add about 12 meatballs and cook, turning often and being careful not to burn, until browned on all sides, about 5 to 7 minutes. Transfer meatballs to the prepared baking sheet, and repeat with remaining batches."},{"recipe_directions":"Bake in the preheated oven until heated through, 30 to 35 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"To cook these in marinara sauce, brown meatballs as instructed and transfer to a plate. Add two 24-ounce jars of your favorite marinara sauce to the browned bits in the Dutch oven. Bring to a boil over medium-high heat. Add the browned meatballs, cover, reduce heat to low, and simmer until meatballs are cooked through, 35 to 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Meatball Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"411\nCalories\n\n\n26g \nFat\n\n\n19g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656357-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8hEhbese1Bdk0Oe9bOpv40qyySA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5206368-f6d5dc48860842889a0f4bd7cadfc5fd.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263128/jicama-tortillas/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Jicama Tortillas</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n18"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large jicama"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large jicama'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wash jicama thoroughly with cool water and remove all dirt using a vegetable brush. Trim both ends of the jicama and peel with a vegetable peeler, removing all skin and tough flesh."},{"recipe_directions":"Cut jicama first in half crosswise, then cut each half into paper-thin slices using a sharp knife or the thinnest blade of a mandoline."},{"recipe_directions":"Use them immediately as crisp tortillas, or store them for up to a week in a resealable plastic bag in the fridge."},{"recipe_directions":"Jicama \"tortillas\" can be softened in different ways: 1) Place them in a steamer insert and steam over boiling water for 2 minutes. Drain over a kitchen towel. 2) Place them in a microwave-safe bowl with 2 tablespoons of water, cover, and microwave on high for 2 minutes. Drain over a kitchen towel. 3) Heat a large griddle over medium heat. Brush jicama tortillas with a small amount of oil and heat 30 seconds per side, until soft."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"25\nCalories\n\n\n0g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656360-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xvp1NXN0od1F4nHKJkiheqkPCug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1011586-bcaa0a4937ea411ea6c5bbad9435de29.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232210/couscous-with-olives-and-sun-dried-tomato/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Couscous with Olives and Sun-Dried Tomato</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups vegetable broth\n\n\n1 ¼ cups water\n\n\n2 cups pearl (Israeli) couscous\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n5 tablespoons olive oil, divided\n\n\n½ cup pine nuts\n\n\n4 cloves garlic, minced\n\n\n1  shallot, minced\n\n\n½ cup sliced black olives\n\n\n⅓ cup sun-dried tomatoes packed in oil, drained and chopped\n\n\n1 cup vegetable broth\n\n\n¼ cup chopped fresh flat-leaf parsley"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups vegetable broth\n\n\n1 ¼ cups water\n\n\n2 cups pearl (Israeli) couscous\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n5 tablespoons olive oil, divided\n\n\n½ cup pine nuts\n\n\n4 cloves garlic, minced\n\n\n1  shallot, minced\n\n\n½ cup sliced black olives\n\n\n⅓ cup sun-dried tomatoes packed in oil, drained and chopped\n\n\n1 cup vegetable broth\n\n\n¼ cup chopped fresh flat-leaf parsley'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring 1 1/4 cup vegetable broth and water to a boil in a saucepan, stir in couscous, and mix in salt and black pepper. Reduce heat to low and simmer until liquid is absorbed, about 8 minutes."},{"recipe_directions":"Heat 3 tablespoons olive oil in a skillet over medium-high heat; stir in pine nuts and cook, stirring frequently, until pine nuts smell toasted and are golden brown, about 1 minute. Remove from heat."},{"recipe_directions":"Heat remaining 2 tablespoons olive oil in a saucepan; cook and stir garlic and shallot in the hot oil until softened, about 2 minutes. Stir black olives and sun-dried tomatoes into garlic mixture and cook until heated through, 2 to 3 minutes, stirring often. Slowly pour in 1 cup vegetable broth and bring mixture to a boil. Reduce heat to low and simmer until sauce has reduced, 8 to 10 minutes."},{"recipe_directions":"Transfer couscous to a large serving bowl, mix with sauce, and serve topped with parsley and pine nuts."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"African"},{"recipe_tags":"North African"},{"recipe_tags":"Egyptian"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"528\nCalories\n\n\n29g \nFat\n\n\n56g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656363-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0ZEKX3Itko-KojtGogVOAtMJI_Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4222710-9e0a81c0a50a4a08816c61914b95284d.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25331/american-style-red-beans-and-rice/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>American-Style Red Beans and Rice</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 (15 ounce) can kidney beans\n\n\n1 ½ cups tomato sauce\n\n\n4 ½ cups water, divided\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil\n\n\n1 pinch dried thyme\n\n\n  salt and pepper to taste\n\n\n5 teaspoons adobo seasoning, divided\n\n\n2 cups uncooked white rice"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 (15 ounce) can kidney beans\n\n\n1 ½ cups tomato sauce\n\n\n4 ½ cups water, divided\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil\n\n\n1 pinch dried thyme\n\n\n  salt and pepper to taste\n\n\n5 teaspoons adobo seasoning, divided\n\n\n2 cups uncooked white rice'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine olive oil, kidney beans, tomato sauce, 1/2 cup water, oregano, basil, thyme, salt, pepper, and 2 teaspoons adobo in a large saucepan. Simmer over low heat."},{"recipe_directions":"Meanwhile, bring 4 cups water to a boil. Stir in rice. Reduce heat, cover, and simmer until rice is cooked and all liquid is absorbed, about 20 minutes. Stir remaining 3 teaspoons adobo into rice."},{"recipe_directions":"Serve bean sauce over rice."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"511\nCalories\n\n\n5g \nFat\n\n\n101g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656366-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xf02_sWCj_vW8oyxHunnxu1XVRs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/6971867-66f77e41dd0a4cba804b045e42dbb29e.jpg"
@@ -526,59 +847,55 @@
 Veggie Stir-Fry with Potatoes</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264316/veggie-stir-fry-with-potatoes/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Veggie Stir-Fry with Potatoes</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds red potatoes, cut into bite-sized chunks\n\n\n2 tablespoons olive oil\n\n\n½ large sweet onion, chopped\n\n\n¾ cup pea pods\n\n\n1 head bok choy, roughly chopped\n\n\n½ cup bean sprouts\n\n\n½ (6 ounce) bag baby spinach\n\n\n3 tablespoons soy sauce, or to taste\n\n\n¼ teaspoon chopped ginger (Optional)\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds red potatoes, cut into bite-sized chunks\n\n\n2 tablespoons olive oil\n\n\n½ large sweet onion, chopped\n\n\n¾ cup pea pods\n\n\n1 head bok choy, roughly chopped\n\n\n½ cup bean sprouts\n\n\n½ (6 ounce) bag baby spinach\n\n\n3 tablespoons soy sauce, or to taste\n\n\n¼ teaspoon chopped ginger (Optional)\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes into a large pot and cover with salted water; bring to a boil. Boil on medium-high heat until tender but still intact, about 15 minutes. Drain."},{"recipe_directions":"Heat oil in a large pan over medium heat. Add onion and cook for 1 minute. Reduce heat to medium-low and add pea pods. Add cooked potatoes and increase heat to medium. Cook 5 to 7 minutes more."},{"recipe_directions":"Add bok choy, bean sprouts, and spinach to the pan. Cover and reduce heat to medium-low; cook about 5 minutes. Add soy sauce and ginger. Cook, uncovered, until juices evaporate and leaves are wilted, about 5 minutes more. Season with salt."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n7g \nFat\n\n\n43g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656369-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Lyxfqp-LMQ2BplnVIItkpdjFC4A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/8380074-8b178e4696fa4315b21e4f9d534899b8.jpg"
@@ -591,59 +908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281154/quick-and-easy-pineapple-fried-rice/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Quick and Easy Pineapple Fried Rice</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n½ cup diced sweet onion\n\n\n1 tablespoon grated ginger root\n\n\n1 clove garlic, minced\n\n\n1 ½ cups fresh pineapple chunks\n\n\n½  diced red bell pepper\n\n\n⅓ cup thawed frozen peas\n\n\n2 cups cold, cooked white rice\n\n\n2 tablespoons low-sodium soy sauce, or to taste\n\n\n1 teaspoon sesame oil\n\n\n2 tablespoons sliced green onion\n\n\n1 teaspoon toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n½ cup diced sweet onion\n\n\n1 tablespoon grated ginger root\n\n\n1 clove garlic, minced\n\n\n1 ½ cups fresh pineapple chunks\n\n\n½  diced red bell pepper\n\n\n⅓ cup thawed frozen peas\n\n\n2 cups cold, cooked white rice\n\n\n2 tablespoons low-sodium soy sauce, or to taste\n\n\n1 teaspoon sesame oil\n\n\n2 tablespoons sliced green onion\n\n\n1 teaspoon toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Add diced onion and cook for about 1 minute. Add ginger and garlic; cook, stirring constantly, for 1 minute."},{"recipe_directions":"Increase heat to medium-high; add pineapple, red bell pepper, and peas. Cook, stirring constantly, for 3 to 4 minutes. Stir in rice and soy sauce; cook until sauce is well incorporated, 1 to 2 minutes. Stir in sesame oil and remove from heat."},{"recipe_directions":"Garnish with sliced green onion and sesame seeds before serving."},{"recipe_directions":"To make grating ginger root easier, freeze for about 1 hour."},{"recipe_directions":"Also, black sesame seeds will give this a nice pop of color and add some eye appeal."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n9g \nFat\n\n\n36g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656372-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ghcYFJOKZxKvCkNtBM1r0MAIZF8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7818027-0703fb95d5f9454794d2d31c59752a45.jpg"
@@ -656,59 +969,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278523/reduced-calorie-chocolate-banana-oatmeal/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Reduced-Calorie Chocolate Banana Oatmeal</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons unsweetened cocoa powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 packet zero-calorie sweetener\n\n\n1 pinch salt\n\n\n¼ cup hot water\n\n\n¼ cup cold water\n\n\n⅓ cup rolled oats\n\n\n½  banana, mashed"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons unsweetened cocoa powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 packet zero-calorie sweetener\n\n\n1 pinch salt\n\n\n¼ cup hot water\n\n\n¼ cup cold water\n\n\n⅓ cup rolled oats\n\n\n½  banana, mashed'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour cocoa powder into a microwave-safe bowl and stir in cinnamon, sweetener, and salt. Add hot water and stir thoroughly until cocoa powder has dissolved. Stir in cold water until well combined. Stir in oats and banana until mixed well."},{"recipe_directions":"Microwave for 2 minutes. Remove, stir, and allow oatmeal to cool and thicken."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n3g \nFat\n\n\n38g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656375-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZyJxqk9MGE8mTx2ZFpVlWYUwtvk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2969063-blueberry-smoothie-bowl-Buckwheat-Queen-4x3-1-98e584ddbfa14c7ca3ad34b4ab0ff286.jpg"
@@ -722,59 +1031,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245208/blueberry-smoothie-bowl/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Blueberry Smoothie Bowl</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 smoothie bowl"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup frozen blueberries\n\n\n½  banana\n\n\n2 tablespoons water\n\n\n1 tablespoon cashew butter\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"½  banana, sliced\n\n\n1 tablespoon sliced almonds\n\n\n1 tablespoon unsweetened shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup frozen blueberries\n\n\n½  banana\n\n\n2 tablespoons water\n\n\n1 tablespoon cashew butter\n\n\n1 teaspoon vanilla extract'}, {'recipe_ingredients': '½  banana, sliced\n\n\n1 tablespoon sliced almonds\n\n\n1 tablespoon unsweetened shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend blueberries, 1/2 banana, water, cashew butter, and vanilla extract together in a blender until smooth; pour into a bowl."},{"recipe_directions":"Top smoothie with sliced banana, almonds, and coconut."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bowl Recipes"},{"recipe_tags":"Smoothie"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"368\nCalories\n\n\n16g \nFat\n\n\n55g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656378-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9pSstNCWDhEn-Z5G7ndYQhyLTBQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1630x0:1632x2):format(webp)/5690908-e2e8fb2663ea47dabcee599952b6c3bb.jpg"
@@ -787,59 +1092,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267834/air-fryer-falafel/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Air Fryer Falafel</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n1 day 1 hr\n\n\nTotal Time:\n1 day 1 hr 40 mins\n\n\nServings:\n15 \n\n\nYield:\n15 falafel"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup dry garbanzo beans\n\n\n1 ½ cups fresh cilantro, stems removed\n\n\n¾ cup fresh flat-leafed parsley, stems removed\n\n\n1 small red onion, quartered\n\n\n1 clove garlic\n\n\n2 tablespoons chickpea flour\n\n\n1 tablespoon ground coriander\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon Sriracha sauce\n\n\n  salt and ground black pepper to taste\n\n\n½ teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup dry garbanzo beans\n\n\n1 ½ cups fresh cilantro, stems removed\n\n\n¾ cup fresh flat-leafed parsley, stems removed\n\n\n1 small red onion, quartered\n\n\n1 clove garlic\n\n\n2 tablespoons chickpea flour\n\n\n1 tablespoon ground coriander\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon Sriracha sauce\n\n\n  salt and ground black pepper to taste\n\n\n½ teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak chickpeas in a large amount of cool water for 24 hours. Rub the soaked chickpeas with your fingers to help loosen and remove skins. Rinse and drain well. Spread chickpeas on a large clean dish towel to dry."},{"recipe_directions":"Blend chickpeas, cilantro, parsley, onion, and garlic in a food processor until a rough paste forms. Transfer mixture to a large bowl. Add chickpea flour, coriander, cumin, Sriracha, salt, and pepper and mix well. Cover bowl and let mixture rest for 1 hour."},{"recipe_directions":"Preheat an air fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Add baking powder and baking soda to the chickpea mixture. Mix using your hands until just combined. Form 15 equal-sized balls and press slightly to form patties. Spray falafel patties with cooking spray."},{"recipe_directions":"Place 7 falafel patties in the preheated air fryer and cook for 10 minutes. Transfer cooked falafel to a plate and repeat with remaining 8 falafel, cooking for 10 to 12 minutes."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n1g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656381-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r5lfF8WqSdxDiPqG6sA8_AaPkq0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4547703-4da0dc5e9afd4076b1f1cdbb1e38f386.jpg"
@@ -852,59 +1153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14069/vegan-lasagna-i/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Vegan Lasagna I</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 ½ cups chopped onion\n\n\n3 tablespoons minced garlic\n\n\n4 (14.5 ounce) cans stewed tomatoes\n\n\n⅓ cup tomato paste\n\n\n½ cup chopped fresh basil\n\n\n½ cup chopped parsley\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 (16 ounce) package lasagna noodles\n\n\n2 pounds firm tofu\n\n\n2 tablespoons minced garlic\n\n\n¼ cup chopped fresh basil\n\n\n¼ cup chopped parsley\n\n\n½ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n3 (10 ounce) packages frozen chopped spinach, thawed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 ½ cups chopped onion\n\n\n3 tablespoons minced garlic\n\n\n4 (14.5 ounce) cans stewed tomatoes\n\n\n⅓ cup tomato paste\n\n\n½ cup chopped fresh basil\n\n\n½ cup chopped parsley\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 (16 ounce) package lasagna noodles\n\n\n2 pounds firm tofu\n\n\n2 tablespoons minced garlic\n\n\n¼ cup chopped fresh basil\n\n\n¼ cup chopped parsley\n\n\n½ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n3 (10 ounce) packages frozen chopped spinach, thawed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the sauce: In a large, heavy saucepan, over medium heat, heat the olive oil. Place the onions in the saucepan and saute them until they are soft, about 5 minutes. Add the garlic; cook 5 minutes more."},{"recipe_directions":"Place the tomatoes, tomato paste, basil and parsley in the saucepan. Stir well, turn the heat to low and let the sauce simmer covered for 1 hour. Add the salt and pepper."},{"recipe_directions":"While the sauce is cooking bring a large kettle of salted water to a boil. Boil the lasagna noodles for 9 minutes, then drain and rinse well."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place the tofu blocks in a large bowl. Add the garlic, basil and parsley. Add the salt and pepper, and mash all the ingredients together by squeezing pieces of tofu through your fingers. Mix well."},{"recipe_directions":"Assemble the lasagna: Spread 1 cup of the tomato sauce in the bottom of a 9x13 inch casserole pan. Arrange a single layer of lasagna noodles, sprinkle one-third of the tofu mixture over the noodles. Distribute the spinach evenly over the tofu. Next ladle 1 1/2 cups tomato sauce over the tofu, and top it with another layer of the noodles. Then sprinkle another 1/3 of the tofu mixture over the noodles, top the tofu with 1 1/2 cups tomato sauce, and place a final layer of noodles over the tomato sauce. Finally, top the noodles with the final 1/3 of the tofu, and spread the remaining tomato sauce over everything."},{"recipe_directions":"Cover the pan with foil and bake the lasagna for 30 minutes. Serve hot and enjoy."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Lasagna Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"511\nCalories\n\n\n16g \nFat\n\n\n70g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656384-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LUTS8x18IP61IwhH9LG4EB_cZ9c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7667872-a644afadac6d458f85480c93ee0d96f1.jpg"
@@ -917,59 +1214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/103915/aloo-gobi/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Aloo Gobi</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons vegetable oil, divided\n\n\n½ teaspoon cumin seed\n\n\n1 small onion, quartered and sliced\n\n\n2  serrano chile peppers, minced\n\n\n1 teaspoon ginger paste\n\n\n2 teaspoons ground coriander\n\n\n¼ teaspoon paprika\n\n\n½ teaspoon turmeric powder\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon garam masala\n\n\n2 medium baking potatoes, peeled and cut into 1 inch pieces\n\n\n1 teaspoon salt\n\n\n½ head cauliflower, cut into florets\n\n\n2 teaspoons lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons vegetable oil, divided\n\n\n½ teaspoon cumin seed\n\n\n1 small onion, quartered and sliced\n\n\n2  serrano chile peppers, minced\n\n\n1 teaspoon ginger paste\n\n\n2 teaspoons ground coriander\n\n\n¼ teaspoon paprika\n\n\n½ teaspoon turmeric powder\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon garam masala\n\n\n2 medium baking potatoes, peeled and cut into 1 inch pieces\n\n\n1 teaspoon salt\n\n\n½ head cauliflower, cut into florets\n\n\n2 teaspoons lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 2 tablespoons of oil over medium-high heat in a large pot. Fry cumin seeds for a few seconds until they turn golden brown and begin to pop. Reduce heat to medium, stir in the onion, and cook until lightly browned. Stir in serrano pepper and ginger; fry for 1 minute. Season with coriander, paprika, turmeric, cayenne, and garam masala; cook for 30 seconds until fragrant."},{"recipe_directions":"Stir potatoes and salt into the pot, cover, and cook for 5 to 7 minutes. Add cauliflower, cover, and cook until cauliflower steams in its own juices until tender, about 20 minutes. Stir in lemon juice. Pour remaining 1 tablespoon of oil around the edges of the pot. Increase heat to medium-high and fry for 3 to 5 minutes to brown, stirring gently to avoid mashing the cauliflower."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"141\nCalories\n\n\n7g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656387-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-Qw78yKdNnuKVCPGX8OsSLXlPCs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1135x0:1137x2):format(webp)/5224464-ae226d2a92314027b6bd01a94bc07066.jpg"
@@ -982,59 +1275,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20793/vegetable-masala/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Vegetable Masala</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  potatoes, peeled and cubed\n\n\n1  carrot, chopped\n\n\n10  French-style green beans, chopped\n\n\n1 quart cold water\n\n\n½ cup frozen green peas, thawed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon mustard seed\n\n\n1 teaspoon ground cumin\n\n\n1  onion, finely chopped\n\n\n2  tomatoes - blanched, peeled and chopped\n\n\n1 teaspoon garam masala\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n1 sprig cilantro leaves, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  potatoes, peeled and cubed\n\n\n1  carrot, chopped\n\n\n10  French-style green beans, chopped\n\n\n1 quart cold water\n\n\n½ cup frozen green peas, thawed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon mustard seed\n\n\n1 teaspoon ground cumin\n\n\n1  onion, finely chopped\n\n\n2  tomatoes - blanched, peeled and chopped\n\n\n1 teaspoon garam masala\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n1 sprig cilantro leaves, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes, carrots and green beans in the cold water. Allow to soak while you prepare the rest of the vegetables; drain."},{"recipe_directions":"In a microwave safe dish place the potatoes, carrots, green beans, peas, salt and turmeric. Cook for 8 minutes."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Cook mustard seeds and cumin; when seeds start to sputter and pop, add the onion and saute until transparent. Stir in the tomatoes, garam masala, ginger, garlic and chili powder; saute 3 minutes. Add the cooked vegetables to the tomato mixture and saute 1 minute. Garnish with cilantro leaves."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n4g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656390-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AawN_02h5ZVIhr2AjbJ5yitKyPA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1293155-e1f36e13c75a4efc9d7d97af1c1373a8.jpg"
@@ -1047,59 +1336,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14229/tabbouleh-i/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Cucumber Tabbouleh</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine bulgur and boiling water in a large bowl. Cover, and set aside to soak for 1 hour."},{"recipe_directions":"Add oil, lemon juice, onions, parsley, mint, tomatoes, and cucumber; toss to combine. Season to taste with salt and black pepper. Cover, and refrigerate for at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n10g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656393-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s490rT9xeFJatvnblmmwEJvEfxY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6270879-low-calorie-vegan-chili-Yasmin-4x3-1-1750393050d44c289801b7a0021ac103.jpg"
@@ -1113,59 +1398,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262477/low-calorie-vegan-chili/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Low-Calorie Vegan Chili</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (28 ounce) can diced tomatoes\n\n\n3 cups water\n\n\n1 (15.5 ounce) can kidney beans, drained\n\n\n1 (15.5 ounce) can red beans, drained\n\n\n1  yellow onion, diced\n\n\n1 (6 ounce) can tomato paste\n\n\n1 (6 ounce) can mushroom stems and pieces, drained\n\n\n½  yellow bell pepper, diced\n\n\n½  orange bell pepper, diced\n\n\n3 tablespoons chili powder\n\n\n2 tablespoons garlic powder\n\n\n2 pinches salt"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (28 ounce) can diced tomatoes\n\n\n3 cups water\n\n\n1 (15.5 ounce) can kidney beans, drained\n\n\n1 (15.5 ounce) can red beans, drained\n\n\n1  yellow onion, diced\n\n\n1 (6 ounce) can tomato paste\n\n\n1 (6 ounce) can mushroom stems and pieces, drained\n\n\n½  yellow bell pepper, diced\n\n\n½  orange bell pepper, diced\n\n\n3 tablespoons chili powder\n\n\n2 tablespoons garlic powder\n\n\n2 pinches salt'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine diced tomatoes, water, kidney beans, red beans, onion, tomato paste, mushrooms, yellow bell pepper, orange bell pepper, chili powder, garlic powder, and salt in a large saucepan over high heat. Bring to a boil, stirring occasionally. Reduce heat to medium-low and simmer, stirring occasionally, until all vegetables are tender, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"220\nCalories\n\n\n2g \nFat\n\n\n43g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656396-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H-eunwbAYTfxqtlcGhghPuZx-VQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(879x0:881x2):format(webp)/7729239-205f4513507246028a20bb0172bf0af5.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278805/vegan-spaghetti-and-beyond-meatballs/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Vegan Spaghetti and (Beyond) Meatballs</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (28 ounce) can whole peeled tomatoes, drained, juice reserved\n\n\n4 tablespoons olive oil, divided\n\n\n1 medium onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 teaspoon dried oregano\n\n\n1 ¼ teaspoons salt, divided\n\n\n½ teaspoon freshly ground black pepper, divided\n\n\n1 pound meatless ground beef substitute (such as Beyond Meat® Beyond Beef Plant-Based Ground)\n\n\n1 tablespoon vegan bread crumbs\n\n\n1 ½ teaspoons dried parsley flakes\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n1 (12 ounce) package spaghetti"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (28 ounce) can whole peeled tomatoes, drained, juice reserved\n\n\n4 tablespoons olive oil, divided\n\n\n1 medium onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 teaspoon dried oregano\n\n\n1 ¼ teaspoons salt, divided\n\n\n½ teaspoon freshly ground black pepper, divided\n\n\n1 pound meatless ground beef substitute (such as Beyond Meat® Beyond Beef Plant-Based Ground)\n\n\n1 tablespoon vegan bread crumbs\n\n\n1 ½ teaspoons dried parsley flakes\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n1 (12 ounce) package spaghetti'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dice tomatoes and return them to the can with their juice."},{"recipe_directions":"Heat 2 tablespoons olive oil in a saucepan over medium-high heat. Add onion and garlic to the hot oil and cook, stirring frequently, for 2 minutes. Stir in diced tomatoes and their juice, tomato sauce, oregano, 1/2 teaspoon salt, and 1/4 teaspoon pepper until well blended. Bring sauce to a simmer and reduce heat to low. Let simmer while preparing meatballs."},{"recipe_directions":"Combine beef substitute with bread crumbs, parsley, remaining 3/4 teaspoon salt, remaining 1/4 teaspoon pepper, garlic powder, and onion powder in a bowl; mix until ingredients are well combined. Roll the mixture into twelve 1 1/2-inch balls."},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook spaghetti in the boiling water, stirring occasionally, until tender yet firm to the bite, about 12 minutes."},{"recipe_directions":"Meanwhile, heat remaining 2 tablespoons olive oil in a deep skillet or Dutch oven over medium-high heat. Add meatballs to the pan and saute, turning occasionally, until all sides are browned and a bit crisp, about 10 minutes total. Reduce heat to low."},{"recipe_directions":"Pour simmering tomato sauce over the meatballs and mix. Simmer sauce with meatballs for an additional 10 minutes. Serve meatballs and sauce over spaghetti."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Spaghetti"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"692\nCalories\n\n\n22g \nFat\n\n\n86g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656399-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ea5zOyv3WOiaFPmVoCWFrjKtKcQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4563061-vegetarian-chickpea-tacos-Buckwheat-Queen-4x3-1-c74fa3347e6840adbfc6b4acc8c7187e.jpg"
@@ -1244,59 +1521,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260289/vegetarian-chickpea-tacos/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Vegetarian Chickpea Tacos</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n8 tacos"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (15 ounce) cans chickpeas, drained and rinsed\n\n\n¾ cup water\n\n\n1 (1 ounce) package taco seasoning mix (such as Taco Bell®)\n\n\n8  taco shells"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (15 ounce) cans chickpeas, drained and rinsed\n\n\n¾ cup water\n\n\n1 (1 ounce) package taco seasoning mix (such as Taco Bell®)\n\n\n8  taco shells'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chickpeas in a saucepan over medium heat. Add water and taco seasoning. Cook and stir until thoroughly heated, 5 to 7 minutes. Remove from heat. Mash mixture to crush chickpeas."},{"recipe_directions":"Divide chickpea filling evenly among taco shells."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Taco Recipes"},{"recipe_tags":"Vegetarian Taco Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"331\nCalories\n\n\n8g \nFat\n\n\n55g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656402-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z_bEiaZq0-8ecEiD6ywB10dQGnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x644:801x646):format(webp)/84043_vegan-bean-taco-filling_Rita1-2000-4aaf96b6e5a84301a543f18ba6da3625.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/84043/vegan-bean-taco-filling/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Vegan Bean Taco Filling</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bell pepper, chopped\n\n\n2 (14.5 ounce) cans black beans, rinsed, drained, and mashed\n\n\n2 tablespoons yellow cornmeal\n\n\n1 ½ tablespoons cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon chili powder\n\n\n1 cup salsa"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bell pepper, chopped\n\n\n2 (14.5 ounce) cans black beans, rinsed, drained, and mashed\n\n\n2 tablespoons yellow cornmeal\n\n\n1 ½ tablespoons cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon chili powder\n\n\n1 cup salsa'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a medium skillet over medium heat. Stir in onion, garlic, and bell pepper; cook until tender. Stir in mashed beans. Add the cornmeal. Mix in cumin, paprika, cayenne, chili powder, and salsa. Cover, and cook 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n3g \nFat\n\n\n24g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656405-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rThH18mmqWn7YlufElJWadBQu6Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2305269-8a3aacb0f1a240a08143548baf65c04f.jpg"
@@ -1375,59 +1644,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241083/yellow-squash-and-tofu-stir-fry/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Yellow Squash and Tofu Stir Fry</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil, or as needed\n\n\n3 cloves garlic, minced\n\n\n1  yellow squash, cut into bite-size cubes\n\n\n1  zucchini, cut into bite-size cubes\n\n\n1 (12 ounce) package extra-firm tofu, cut into bite-size cubes\n\n\n¼ cup brown sugar\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon sriracha sauce\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil, or as needed\n\n\n3 cloves garlic, minced\n\n\n1  yellow squash, cut into bite-size cubes\n\n\n1  zucchini, cut into bite-size cubes\n\n\n1 (12 ounce) package extra-firm tofu, cut into bite-size cubes\n\n\n¼ cup brown sugar\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon sriracha sauce\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet or wok over medium-high heat. Cook and stir garlic in hot oil until just fragrant, about 30 seconds. Add squash and zucchini, cook and stir until vegetables soften, about 7 minutes. Transfer squash mixture to a bowl."},{"recipe_directions":"Place skillet back over medium-high heat, place tofu pieces in the skillet, and top with brown sugar and soy sauce. Cook and stir until each side of tofu is golden brown, 3 to 5 minutes."},{"recipe_directions":"Return squash mixture to the skillet; cook and stir until heated through, about 3 minutes. Stir in Sriracha sauce and season with salt and black pepper."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n10g \nFat\n\n\n28g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656408-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tFowOrLUwq5QBT7my6BW3XogtoU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/259205-traditional-style-vegan-shepherds-pie-Brandy-Dykes-1x1-1-1696b5e2b8e5497d87564a8c284a4e41.jpg"
@@ -1441,59 +1706,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/180735/traditional-style-vegan-shepherds-pie/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Traditional Style Vegan Shepherd's Pie</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  russet potatoes, peeled and cut into 1-inch cubes\n\n\n½ cup vegan mayonnaise\n\n\n½ cup soy milk\n\n\n¼ cup olive oil\n\n\n3 tablespoons vegan cream cheese substitute (such as Tofutti ®)\n\n\n2 teaspoons salt"},{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1 large yellow onion, chopped\n\n\n2  carrots, chopped\n\n\n3 stalks celery, chopped\n\n\n½ cup frozen peas\n\n\n1  tomato, chopped\n\n\n1 teaspoon Italian seasoning\n\n\n1 clove garlic, minced, or more to taste\n\n\n1 pinch ground black pepper to taste\n\n\n1 (14 ounce) package vegetarian ground beef substitute\n\n\n½ cup shredded Cheddar-style soy cheese"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  russet potatoes, peeled and cut into 1-inch cubes\n\n\n½ cup vegan mayonnaise\n\n\n½ cup soy milk\n\n\n¼ cup olive oil\n\n\n3 tablespoons vegan cream cheese substitute (such as Tofutti ®)\n\n\n2 teaspoons salt'}, {'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 large yellow onion, chopped\n\n\n2  carrots, chopped\n\n\n3 stalks celery, chopped\n\n\n½ cup frozen peas\n\n\n1  tomato, chopped\n\n\n1 teaspoon Italian seasoning\n\n\n1 clove garlic, minced, or more to taste\n\n\n1 pinch ground black pepper to taste\n\n\n1 (14 ounce) package vegetarian ground beef substitute\n\n\n½ cup shredded Cheddar-style soy cheese'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the potatoes in a pot, cover with cold water, and bring to a boil over medium-high heat. Turn the heat to medium-low, and boil the potatoes until tender, about 25 minutes; drain."},{"recipe_directions":"Stir the vegan mayonnaise, soy milk, olive oil, vegan cream cheese, and salt into the potatoes, and mash with a potato masher until smooth and fluffy. Set the potatoes aside."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C), and spray a 2-quart baking dish with cooking spray."},{"recipe_directions":"Heat the vegetable oil in a large skillet over medium heat, and cook and stir the onion, carrots, celery, frozen peas, and tomato until softened, about 10 minutes. Stir in the Italian seasoning, garlic, and pepper."},{"recipe_directions":"Reduce the heat to medium-low, and crumble the vegetarian ground beef substitute into the skillet with the vegetables. Cook and stir, breaking up the meat substitute, until the mixture is hot, about 5 minutes."},{"recipe_directions":"Spread the vegetarian meat substitute mixture into the bottom of the baking dish, and top with the mashed potatoes, smoothing them into an even layer. Sprinkle the potatoes with the shredded soy cheese."},{"recipe_directions":"Bake in the preheated oven until the cheese is melted and slightly browned and the casserole is hot, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Savory Pie Recipes"},{"recipe_tags":"Vegetarian Pie"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"552\nCalories\n\n\n24g \nFat\n\n\n65g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656411-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PVu9MSDOLnYUsMUxLK0DlbpS5kw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/490740-f39544468a6a4d268468898a4f061460.jpg"
@@ -1506,59 +1767,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13059/spicy-indian-dahl/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Spicy Indian Dahl</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup red lentils\n\n\n2 tablespoons ginger root, minced\n\n\n1 teaspoon mustard seed\n\n\n2 tablespoons chopped fresh cilantro\n\n\n4  tomatoes, chopped\n\n\n3  onions, chopped\n\n\n3  jalapeno peppers, seeded and minced\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon ground coriander seed\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons olive oil\n\n\n1 cup water\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup red lentils\n\n\n2 tablespoons ginger root, minced\n\n\n1 teaspoon mustard seed\n\n\n2 tablespoons chopped fresh cilantro\n\n\n4  tomatoes, chopped\n\n\n3  onions, chopped\n\n\n3  jalapeno peppers, seeded and minced\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon ground coriander seed\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons olive oil\n\n\n1 cup water\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook the lentils by boiling or pressure cooking until lentils are soft. (Pressure cooking is faster.)"},{"recipe_directions":"In a skillet heat the oil and add mustard seeds. When mustard seeds begin to flutter, add onions, ginger, jalapeno peppers, and garlic. Saute until the onions and garlic are golden brown. Add coriander and cumin. Add chopped tomatoes. Saute the mixture well until tomatoes are well cooked."},{"recipe_directions":"Add water. Boil 6 minutes. Add cooked lentils, stirring well. Add salt to taste, stirring well. Add finely chopped cilantro and remove from heat. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n6g \nFat\n\n\n31g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656414-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9LcJiEeOkY6NR4rFQGFW9zzZl6o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3660295-668866e77d5c46db8978f8d584a6e7e7.jpg"
@@ -1571,59 +1828,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258587/vegan-mofongo-fried-mashed-plantains/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Vegan Mofongo (Fried Mashed Plantains)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 large green plantains, coarsely chopped\n\n\n1 (8 ounce) can organic tomato sauce\n\n\n1 small bunch cilantro, chopped, or to taste\n\n\n2 tablespoons homemade sofrito\n\n\n2 tablespoons olive oil, or to taste, divided\n\n\n1 clove garlic, minced\n\n\n1 (.18 ounce) packet sazon seasoning\n\n\n½ cup vegetable broth, or to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 large green plantains, coarsely chopped\n\n\n1 (8 ounce) can organic tomato sauce\n\n\n1 small bunch cilantro, chopped, or to taste\n\n\n2 tablespoons homemade sofrito\n\n\n2 tablespoons olive oil, or to taste, divided\n\n\n1 clove garlic, minced\n\n\n1 (.18 ounce) packet sazon seasoning\n\n\n½ cup vegetable broth, or to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a 1-quart pot with water; boil plantains with a pinch of salt until easily pierced with a fork, about 25 minutes."},{"recipe_directions":"Mash plantains with tomato sauce, cilantro, sofrito, 1 tablespoon olive oil, garlic, and sazon in a mortar or glass bowl. Incorporate the remaining 1 tablespoon olive oil and enough vegetable broth to ensure that mofongo sticks together but is dry enough to easily slip out of a container. Season with salt and pepper."},{"recipe_directions":"Serve mofongo on top of the remaining 5 tablespoons vegetable broth in a bowl."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Caribbean"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"517\nCalories\n\n\n10g \nFat\n\n\n114g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656417-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nhESRxvUsP1NtHre9u-yYm9-rfg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/7887835-e9957167f0554673a7b3c05db1e7c9fd.jpg"
@@ -1636,59 +1889,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272903/sauteed-potatoes-with-kale/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sauteed Potatoes with Kale</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds white potatoes, cubed\n\n\n½ cup extra-virgin olive oil, divided\n\n\n1 bunch kale, stemmed and torn into pieces\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds white potatoes, cubed\n\n\n½ cup extra-virgin olive oil, divided\n\n\n1 bunch kale, stemmed and torn into pieces\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes into a large pot and cover with salted water; bring to a boil. Reduce heat to medium-low and simmer until tender but still holding their shape, about 15 minutes. Drain."},{"recipe_directions":"Meanwhile, heat 2 tablespoons olive oil in a large frying pan over medium-high heat until quite hot. Toss in pieces of kale; reduce heat to medium. Cover and cook, stirring often, until kale begins to soften and crisp slightly, about 5 minutes. Add onion; cook until softened and translucent, 2 to 3 minutes. Stir in garlic."},{"recipe_directions":"Add remaining olive oil when onions are beginning to brown. Stir in potatoes and season with salt and pepper. Cover and cook until potatoes are completely softened, about 5 minutes. Remove lid; cook and stir until potatoes just begin to brown, about 10 minutes more."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"484\nCalories\n\n\n29g \nFat\n\n\n51g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656420-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oPq6t8pTsRmb8KH7VT_oEj4e764=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1573x0:1575x2):format(webp)/9180322-8ef9cde16e60416dbd39afd11fc114b3.jpg"
@@ -1701,59 +1950,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283690/vegan-chocolate-blended-baked-oats/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Vegan Chocolate Blended Baked Oats</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 blended oats"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 cup rolled oats\n\n\n⅔ cup almond milk\n\n\n1 large ripe banana, mashed\n\n\n2 tablespoons cocoa powder\n\n\n2 tablespoons maple syrup\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons vegan chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 cup rolled oats\n\n\n⅔ cup almond milk\n\n\n1 large ripe banana, mashed\n\n\n2 tablespoons cocoa powder\n\n\n2 tablespoons maple syrup\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons vegan chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray two 8-ounce ramekins with cooking spray on the bottom and sides."},{"recipe_directions":"Combine oats, almond milk, banana, cocoa powder, maple syrup, baking powder, vanilla extract, and salt in a blender. Blend until all is combined well, 30 to 60 seconds. Fill mixture into the prepared ramekins and sprinkle each with 1 tablespoon chocolate chips."},{"recipe_directions":"Bake in the preheated oven until firm, about 25 minutes."},{"recipe_directions":"I tried both old-fashioned oats and quick oats and thought both worked out the same."},{"recipe_directions":"The texture will change if these sit, and the next day they will be very dense; however, I still enjoyed mine reheated in the microwave."},{"recipe_directions":"You can use the same amount of coconut sugar or agave syrup in place of maple syrup."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"379\nCalories\n\n\n11g \nFat\n\n\n72g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656423-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zG7IpecZBGi2SQxh9WBcDhXhNT4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2047x0:2049x2):format(webp)/9154725-74416dd6fb2d4324b4fd4015bbf84ba5.jpg"
@@ -1766,59 +2011,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284005/spicy-asian-ramen-noodles/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Spicy Asian Ramen Noodles</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons sesame oil\n\n\n1 ½ tablespoons brown sugar\n\n\n1 tablespoon rice vinegar\n\n\n2 teaspoons chili-garlic sauce, or more to taste\n\n\n1 teaspoon grated fresh ginger \n\n\n3 tablespoons creamy peanut butter"},{"recipe_ingredients":"2 (3 ounce) packages ramen noodles\n\n\n2 tablespoons chopped peanuts\n\n\n2 medium green onions, thinly sliced diagonally"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons sesame oil\n\n\n1 ½ tablespoons brown sugar\n\n\n1 tablespoon rice vinegar\n\n\n2 teaspoons chili-garlic sauce, or more to taste\n\n\n1 teaspoon grated fresh ginger \n\n\n3 tablespoons creamy peanut butter'}, {'recipe_ingredients': '2 (3 ounce) packages ramen noodles\n\n\n2 tablespoons chopped peanuts\n\n\n2 medium green onions, thinly sliced diagonally'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk soy sauce, sesame oil, brown sugar, rice vinegar, chili garlic sauce, and ginger together in a small bowl. Add peanut butter, whisking until well combined, and set aside."},{"recipe_directions":"Bring 4 cups of water to a boil in a pot. Discard the flavor packet and add ramen noodles to the boiling water. Cook until noodles are tender, 4 to 5 minutes. Drain noodles, reserving some of the noodle water in case you need to thin out the sauce later."},{"recipe_directions":"Pour sauce over ramen noodles, tossing until well coated. If sauce is too thick, thin out with a small amount of the reserved noodle water until you reach your desired consistency. Your hot noodles will soak up the sauce. Garnish with peanuts and green onion, and serve."},{"recipe_directions":"I used chili garlic sauce made by Huy Fong®."},{"recipe_directions":"You may substitute Gourmet Garden® ginger paste found in the produce section of your supermarket for the freshly-grated ginger."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Pasta and Noodles"},{"recipe_tags":"Noodle Recipes"},{"recipe_tags":"Ramen Noodle Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n22g \nFat\n\n\n19g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656426-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JDZBSwOXN1qpleWeRxCPOcBjKnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7613711-38ca11641eb9458c968e57489eea5acc.jpg"
@@ -1831,59 +2072,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17522/lentils-and-spinach/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Lentils And Spinach</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n2  white onions, halved and sliced into 1/2 rings\n\n\n3 cloves garlic, minced\n\n\n½ cup lentils\n\n\n2 cups water\n\n\n1 (10 ounce) package frozen spinach\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cumin\n\n\n  freshly ground black pepper to taste\n\n\n2 cloves garlic, crushed"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n2  white onions, halved and sliced into 1/2 rings\n\n\n3 cloves garlic, minced\n\n\n½ cup lentils\n\n\n2 cups water\n\n\n1 (10 ounce) package frozen spinach\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cumin\n\n\n  freshly ground black pepper to taste\n\n\n2 cloves garlic, crushed'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a heavy pan over medium heat. Saute onion for 10 minutes or so, until it begins to turn golden. Add minced garlic and saute for another minute or so."},{"recipe_directions":"Add lentils and water to the saucepan. Bring mixture to a boil. Cover, lower heat, and simmer about 35 minutes, until lentils are soft ( this may take less time, depending on your water and the lentils)."},{"recipe_directions":"Meanwhile cook the spinach in microwave according to package directions. Add spinach, salt and cumin to the saucepan. Cover and simmer until all is heated, about ten minutes. Grind in plenty of pepper and press in extra garlic to taste."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"165\nCalories\n\n\n4g \nFat\n\n\n24g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656429-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Zi4TpnTSinvJ_jKCok2vNo6ku10=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4170610-18addac217ab4880a9ffb8d70dd95339.jpg"
@@ -1896,59 +2133,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254692/crazy-creamy-chickpea-curry/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Crazy Creamy Chickpea Curry</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n10 cups"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon coconut oil\n\n\n1 medium yellow onion, thinly sliced\n\n\n1 tablespoon minced fresh ginger root\n\n\n4 cloves garlic, minced\n\n\n2 tablespoons mild curry powder\n\n\n¼ teaspoon red pepper flakes\n\n\n2 ½ cups vegetable broth\n\n\n2 tablespoons reduced-sodium soy sauce or tamari\n\n\n2 tablespoons pure maple syrup\n\n\n2 tablespoons tomato paste\n\n\n¾ pound Yukon Gold potatoes, cut into 3/4-inch pieces\n\n\n1 large carrot, sliced diagonally 1/4 inch thick\n\n\n4 cups large cauliflower florets\n\n\n1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 cup coconut milk\n\n\n¼ cup chopped fresh cilantro, plus more for garnish\n\n\n½ cup frozen peas\n\n\n  Salt to taste\n\n\n  Cooked basmati rice\n\n\n1 tablespoon Sriracha chile sauce"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon coconut oil\n\n\n1 medium yellow onion, thinly sliced\n\n\n1 tablespoon minced fresh ginger root\n\n\n4 cloves garlic, minced\n\n\n2 tablespoons mild curry powder\n\n\n¼ teaspoon red pepper flakes\n\n\n2 ½ cups vegetable broth\n\n\n2 tablespoons reduced-sodium soy sauce or tamari\n\n\n2 tablespoons pure maple syrup\n\n\n2 tablespoons tomato paste\n\n\n¾ pound Yukon Gold potatoes, cut into 3/4-inch pieces\n\n\n1 large carrot, sliced diagonally 1/4 inch thick\n\n\n4 cups large cauliflower florets\n\n\n1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 cup coconut milk\n\n\n¼ cup chopped fresh cilantro, plus more for garnish\n\n\n½ cup frozen peas\n\n\n  Salt to taste\n\n\n  Cooked basmati rice\n\n\n1 tablespoon Sriracha chile sauce'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt coconut oil in a heavy 4-quart pot over medium heat. Saute onion until lightly browned, 5 to 7 minutes. Add ginger and garlic and saute until fragrant, about 30 seconds. Add curry powder, pepper flakes, broth, soy sauce, maple syrup, and tomato paste and stir."},{"recipe_directions":"Add potatoes and carrot, cover pot, and bring to a boil. Immediately reduce heat to a simmer and leave lid ajar. Cook just until potatoes are tender, about 10 minutes. Add cauliflower, chickpeas, coconut milk, and cilantro. Stir gently to incorporate. Return to simmer with lid ajar and simmer just until cauliflower is tender, 5 to 7 minutes. Fold in peas and cook until heated through, about 1 minute."},{"recipe_directions":"Remove from heat and season with salt, if needed. Serve with steamed basmati rice and, for those who'd like more heat, sriracha sauce. Garnish with cilantro."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"420\nCalories\n\n\n12g \nFat\n\n\n70g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656432-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0OGVn0nboG7oHuK1fav7ujwKROU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4702019-delicious-lentil-loaf-HurdBird-4x3-1-01b6853c4a3f41d1a4061229b05df54d.jpg"
@@ -1962,59 +2195,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246344/delicious-lentil-loaf/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Delicious Lentil Loaf</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n6 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups water\n\n\n1 cup brown lentils\n\n\n⅓ cup water\n\n\n3 tablespoons ground flax seed\n\n\n2 tablespoons olive oil\n\n\n1  onion, minced\n\n\n1 cup minced fresh mushrooms\n\n\n1 cup minced celery\n\n\n2 large cloves garlic, minced\n\n\n¾ cup quick-cooking oats\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder"},{"recipe_ingredients":"¼ cup ketchup\n\n\n¼ cup brown sugar\n\n\n2 tablespoons mustard\n\n\n2 tablespoons smoky barbeque sauce"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups water\n\n\n1 cup brown lentils\n\n\n⅓ cup water\n\n\n3 tablespoons ground flax seed\n\n\n2 tablespoons olive oil\n\n\n1  onion, minced\n\n\n1 cup minced fresh mushrooms\n\n\n1 cup minced celery\n\n\n2 large cloves garlic, minced\n\n\n¾ cup quick-cooking oats\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder'}, {'recipe_ingredients': '¼ cup ketchup\n\n\n¼ cup brown sugar\n\n\n2 tablespoons mustard\n\n\n2 tablespoons smoky barbeque sauce'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 2 1/2 cups water and lentils in a saucepan; bring to a boil. Reduce heat, cover saucepan, and simmer until all the liquid is absorbed and lentils are tender, 20 to 30 minutes."},{"recipe_directions":"Mix 1/3 cup water and ground flax seed together in a bowl; set aside until thickened, at least 10 minutes."},{"recipe_directions":"Heat olive oil in a large pot over medium heat; cook and stir onion, mushrooms, celery, and garlic until softened and liquid from mushrooms has evaporated, 5 to 10 minutes."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a loaf pan."},{"recipe_directions":"Transfer cooked lentils to a food processor and pulse until about 75 percent of lentils are mashed. Mix onion-mushroom mixture, flax seed-water mixture, oats, flour, basil, black pepper, salt, and onion powder into lentils until well combined. Press lentil mixture into the prepared loaf pan."},{"recipe_directions":"Combine ketchup, brown sugar, mustard, and barbeque sauce in a saucepan over medium-low heat; cook and stir until glaze is smooth and brown sugar is dissolved, about 5 minutes. Remove saucepan from heat."},{"recipe_directions":"Bake loaf in the preheated oven for 35 minutes. Spread 1/4 cup glaze over lentil loaf; continue baking until cooked through, 10 to 15 minutes more. Serve lentil loaf with remaining glaze on the side."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"318\nCalories\n\n\n8g \nFat\n\n\n51g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656436-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FUDr7bSyC1LBtxNEYBnD8hYfWkk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(415x0:417x2):format(webp)/9235591-marrakesh-vegetable-curry-Colleen-Seal-1x1-1-63a7a588dcde49d6954f2de56d0f0383.jpg"
@@ -2028,59 +2257,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13988/marrakesh-vegetable-curry/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Marrakesh Vegetable Curry</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  sweet potato, peeled and cubed\n\n\n1  medium eggplant, cubed\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2  carrots, chopped\n\n\n1  onion, chopped\n\n\n6 tablespoons olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground turmeric\n\n\n1 tablespoon curry powder\n\n\n1 teaspoon ground cinnamon\n\n\n¾ tablespoon sea salt\n\n\n¾ teaspoon cayenne pepper\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n¼ cup blanched almonds\n\n\n1  zucchini, sliced\n\n\n2 tablespoons raisins\n\n\n1 cup orange juice\n\n\n10 ounces spinach"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  sweet potato, peeled and cubed\n\n\n1  medium eggplant, cubed\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2  carrots, chopped\n\n\n1  onion, chopped\n\n\n6 tablespoons olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground turmeric\n\n\n1 tablespoon curry powder\n\n\n1 teaspoon ground cinnamon\n\n\n¾ tablespoon sea salt\n\n\n¾ teaspoon cayenne pepper\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n¼ cup blanched almonds\n\n\n1  zucchini, sliced\n\n\n2 tablespoons raisins\n\n\n1 cup orange juice\n\n\n10 ounces spinach'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large Dutch oven place sweet potato, eggplant, peppers, carrots, onion, and three tablespoons oil. Saute over medium heat for 5 minutes."},{"recipe_directions":"In a medium saucepan place 3 tablespoons olive oil, garlic, turmeric, curry powder, cinnamon, salt and pepper and saute over medium heat for 3 minutes."},{"recipe_directions":"Pour garlic and spice mixture into the Dutch oven with vegetables in it. Add the garbanzo beans, almonds, zucchini, raisins, and orange juice. Simmer 20 minutes, covered."},{"recipe_directions":"Add spinach to pot and cook for 5 more minutes. Serve!"}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"African"},{"recipe_tags":"North African"},{"recipe_tags":"Moroccan"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"330\nCalories\n\n\n18g \nFat\n\n\n39g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656439-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xUpQ_sjBGwp972PjC8prdnUeoFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4487253-e6669e70d4114beb857b6aeac7814444.jpg"
@@ -2093,59 +2318,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257457/meyer-lemon-avocado-toast/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Meyer Lemon Avocado Toast</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n13 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 slices whole grain bread\n\n\n½  avocado\n\n\n2 tablespoons chopped fresh cilantro, or more to taste\n\n\n1 teaspoon Meyer lemon juice, or to taste\n\n\n¼ teaspoon Meyer lemon zest\n\n\n1 pinch cayenne pepper\n\n\n1 pinch fine sea salt\n\n\n¼ teaspoon chia seeds"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 slices whole grain bread\n\n\n½  avocado\n\n\n2 tablespoons chopped fresh cilantro, or more to taste\n\n\n1 teaspoon Meyer lemon juice, or to taste\n\n\n¼ teaspoon Meyer lemon zest\n\n\n1 pinch cayenne pepper\n\n\n1 pinch fine sea salt\n\n\n¼ teaspoon chia seeds'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toast bread slices to desired doneness, 3 to 5 minutes."},{"recipe_directions":"Mash avocado in a bowl; stir in cilantro, Meyer lemon juice, Meyer lemon zest, cayenne pepper, and sea salt. Spread avocado mixture onto toast and top with chia seeds."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"72\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656442-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hFMKPSMfBpLeQXRQyI2YI4vAtAU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/262727-06dba02d1ee040bd977de8a8f69b4d8e.jpg"
@@ -2158,59 +2379,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12960/moroccan-lentil-soup/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Moroccan Lentil Soup</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 45 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 plus servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  onions, chopped\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon grated fresh ginger \n\n\n6 cups water\n\n\n1 cup red lentils\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 (19 ounce) can cannellini beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n½ cup diced carrots\n\n\n½ cup chopped celery\n\n\n1 teaspoon garam masala\n\n\n1 ½ teaspoons ground cardamom\n\n\n½ teaspoon ground cayenne pepper\n\n\n½ teaspoon ground cumin\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  onions, chopped\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon grated fresh ginger \n\n\n6 cups water\n\n\n1 cup red lentils\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 (19 ounce) can cannellini beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n½ cup diced carrots\n\n\n½ cup chopped celery\n\n\n1 teaspoon garam masala\n\n\n1 ½ teaspoons ground cardamom\n\n\n½ teaspoon ground cayenne pepper\n\n\n½ teaspoon ground cumin\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In large pot saute; the onions, garlic, and ginger in a little olive oil for about 5 minutes."},{"recipe_directions":"Add the water, lentils, chick peas, white kidney beans, diced tomatoes, carrots, celery, garam masala, cardamom, cayenne pepper and cumin. Bring to a boil for a few minutes then simmer for 1 to 1 1/2 hours or longer, until the lentils are soft."},{"recipe_directions":"Puree half the soup in a food processor or blender. Return the pureed soup to the pot, stir and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n4g \nFat\n\n\n57g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656445-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cLx9f5NqmbFPmWiXhdgDLXcSd80=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(649x0:651x2):format(webp)/4561727-578dd97bd94c4f978869e2506958cafb.jpg"
@@ -2223,59 +2440,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260446/mediterranean-rice-salad-with-vegetables/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Mediterranean Rice Salad with Vegetables</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n23 mins\n\n\nTotal Time:\n43 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups water\n\n\n2 cups uncooked white rice\n\n\n2 tablespoons extra-virgin olive oil, divided\n\n\n1 teaspoon herb salt\n\n\n1 tablespoon chopped capers\n\n\n1 sprig fresh parsley, chopped\n\n\n½  lemon, zested\n\n\n3  zucchini, peeled and grated\n\n\n2  carrots, peeled and grated\n\n\n½  yellow bell pepper, cut into cubes\n\n\n½  red bell pepper, cut into cubes\n\n\n1  lemon, juiced\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups water\n\n\n2 cups uncooked white rice\n\n\n2 tablespoons extra-virgin olive oil, divided\n\n\n1 teaspoon herb salt\n\n\n1 tablespoon chopped capers\n\n\n1 sprig fresh parsley, chopped\n\n\n½  lemon, zested\n\n\n3  zucchini, peeled and grated\n\n\n2  carrots, peeled and grated\n\n\n½  yellow bell pepper, cut into cubes\n\n\n½  red bell pepper, cut into cubes\n\n\n1  lemon, juiced\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 18 to 20 minutes. Remove from heat and pour enough cold water on top of the cooked rice to cover it. Stir to cool. Drain well; transfer rice into a bowl. Stir in 1 tablespoon olive oil and season with herb salt."},{"recipe_directions":"Mix capers, parsley, and lemon zest in a small bowl; add to rice. Mix in zucchini, carrots, yellow bell pepper, and red bell pepper. Season with remaining 1 tablespoon olive oil, lemon juice, and salt."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"455\nCalories\n\n\n8g \nFat\n\n\n88g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656448-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aAsqndbj-Tw2j6AmKwY8UFyn1Po=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/4585329-tacos-de-jamaica-vegan-hibiscus-tacos-Chef-Gaby-Cervello-4x3-1-1f0865f872ca4eada4fe4695a33cc649.jpg"
@@ -2289,59 +2502,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260001/tacos-de-jamaica-vegan-hibiscus-tacos/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Tacos de Jamaica (Vegan Hibiscus Tacos)</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n17 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 32 mins\n\n\nServings:\n18 \n\n\nYield:\n18 tortillas"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces dried hibiscus flowers\n\n\n1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n  salt and freshly ground black pepper to taste"},{"recipe_ingredients":"10  fresh tomatillos, husks removed\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¼  onion, chopped\n\n\n2  serrano peppers\n\n\n1 clove garlic\n\n\n2 tablespoons chopped fresh cilantro\n\n\n  salt to taste\n\n\n18  corn tortillas"},{"recipe_ingredients":"2 slices fresh pineapple, chopped\n\n\n1 small onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces dried hibiscus flowers\n\n\n1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n  salt and freshly ground black pepper to taste'}, {'recipe_ingredients': '10  fresh tomatillos, husks removed\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¼  onion, chopped\n\n\n2  serrano peppers\n\n\n1 clove garlic\n\n\n2 tablespoons chopped fresh cilantro\n\n\n  salt to taste\n\n\n18  corn tortillas'}, {'recipe_ingredients': '2 slices fresh pineapple, chopped\n\n\n1 small onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse hibiscus very well to make sure all dust is removed. Place clean hibiscus in a pot over medium heat, cover with water, and boil for 10 minutes. Remove hibiscus from heat and allow to steep for at least 2 hours, until hibiscus is very soft. Drain well."},{"recipe_directions":"Heat oil in a large skillet over medium heat and cook 1 onion and 2 cloves garlic until soft and translucent, about 2 minutes. Stir in drained hibiscus and season with salt and pepper. Cook for 5 minutes, stirring constantly, until hibiscus turns a deep red color."},{"recipe_directions":"Combine tomatillos, avocado, 1/4 onion, serrano peppers, 1 clove garlic, and 2 tablespoons cilantro; blend until smooth. Season salsa verde with salt."},{"recipe_directions":"Warm corn tortillas in a skillet. Divide hibiscus mixture amongst tortillas and top with pineapple, onion, and cilantro. Serve with salsa verde and lime."},{"recipe_directions":"You can use the liquid from soaking the hibiscus to make hibiscus agua fresca."},{"recipe_directions":"Watch the recipe video in Spanish on my blog: Gaby Cervello"}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"101\nCalories\n\n\n3g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656451-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qjWq5X-BhgRS4Ubr8pqcPPEZmjA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4463194-d5800f1340fe41ae9ac4db558ae1e1e9.jpg"
@@ -2354,59 +2563,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/162501/quinoa-porridge/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Quinoa Porridge</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup quinoa\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ½ cups almond milk\n\n\n½ cup water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon vanilla extract (Optional)\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup quinoa\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ½ cups almond milk\n\n\n½ cup water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon vanilla extract (Optional)\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a saucepan over medium heat and measure in the quinoa. Season with cinnamon and cook until toasted, stirring frequently, about 3 minutes. Pour in the almond milk, water and vanilla and stir in the brown sugar and salt. Bring to a boil, then cook over low heat until the porridge is thick and grains are tender, about 25 minutes. Add more water if needed if the liquid has dried up before it finishes cooking. Stir occasionally, especially at the end, to prevent burning."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"173\nCalories\n\n\n3g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656454-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/heAwG2MB7S25gQ0MK0iPuYe0y58=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/365677-007978a28ef847b1b8e9c5f399320f7f.jpg"
@@ -2419,59 +2624,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14113/tofu-turkey-i/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Tofu Turkey I</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 (16 ounce) packages extra-firm tofu\n\n\n2 tablespoons sesame oil\n\n\n1  red onion, finely diced\n\n\n1 ⅓ cups diced celery\n\n\n1 cup chopped mushrooms\n\n\n2 cloves garlic, minced\n\n\n⅛ cup dried sage\n\n\n2 teaspoons dried thyme\n\n\n  salt and pepper to taste\n\n\n1 ½ teaspoons dried rosemary\n\n\n¼ cup tamari\n\n\n3 cups prepared herb stuffing\n\n\n½ cup sesame oil\n\n\n¼ cup tamari\n\n\n2 tablespoons miso paste\n\n\n5 tablespoons orange juice\n\n\n1 teaspoon honey mustard\n\n\n½ teaspoon orange zest\n\n\n3 sprigs fresh rosemary"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 (16 ounce) packages extra-firm tofu\n\n\n2 tablespoons sesame oil\n\n\n1  red onion, finely diced\n\n\n1 ⅓ cups diced celery\n\n\n1 cup chopped mushrooms\n\n\n2 cloves garlic, minced\n\n\n⅛ cup dried sage\n\n\n2 teaspoons dried thyme\n\n\n  salt and pepper to taste\n\n\n1 ½ teaspoons dried rosemary\n\n\n¼ cup tamari\n\n\n3 cups prepared herb stuffing\n\n\n½ cup sesame oil\n\n\n¼ cup tamari\n\n\n2 tablespoons miso paste\n\n\n5 tablespoons orange juice\n\n\n1 teaspoon honey mustard\n\n\n½ teaspoon orange zest\n\n\n3 sprigs fresh rosemary'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a medium sized, round colander with a cheese cloth or a clean dish towel. Place the crumbled tofu in the colander. Place another cheese cloth over the top of the tofu. Place the colander over the top of a bowl to catch the liquid. Place a heavy weight on top of tofu. Refrigerate the colander, tofu and weight for 2 to 3 hours."},{"recipe_directions":"Make the stuffing: In a large frying pan saute onion, celery and mushrooms in 2 tablespoons of the sesame oil until tender. Add the garlic, sage, thyme, salt and pepper, rosemary and 1/4 cup of the tamari. Stir well; cook for 5 minutes. Add prepared herb stuffing and mix well. Remove from heat."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease a cookie sheet."},{"recipe_directions":"Combine 1/2 cup sesame oil, 1/4 cup tamari, miso, orange juice, mustard and orange zest in a small bowl; mix well."},{"recipe_directions":"Remove the weight from the tofu. Hollow out the tofu so that there is one inch of tofu still lining the colander. Place the scooped out tofu in a separate bowl. Brush the tofu lining with a small amount of the miso seasoning. Scoop the stuffing into the center of the tofu shell. Place the leftover tofu on top of the stuffing and press down firmly. Turn the stuffed tofu onto the prepared cookie sheet. Putting the leftover tofu side of the \"turkey\" (the flat side) down. Gently press on the sides of the \"turkey\" to form a more oval shape. Brush the tofu turkey with 1/2 of the oil-tamari mixture. Place the sprigs of rosemary on top of the tofu. Cover the \"turkey\" with foil."},{"recipe_directions":"Bake for one hour. After one hour, remove \"turkey\" from the oven and remove the foil. Baste the \"turkey\" with the remaining tamari-oil sauce (reserving 4 tablespoons of sauce). Return \"turkey\" to oven and bake another hour or until the tofu turkey is golden brown. Place the tofu turkey on a serving platter, brush with the remaining tamari-oil mixture and serve hot."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"470\nCalories\n\n\n32g \nFat\n\n\n22g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656457-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/q6G0mfjM_Bypr51k-y70KEULstA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4306820-ultimate-tofu-breakfast-burrito-bowls-Allrecipes-Magazine-1x1-1-745f8f3119734972950942cb0c4b4fc4.jpg"
@@ -2485,59 +2686,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256021/ultimate-tofu-breakfast-burrito-bowls/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Ultimate Tofu Breakfast Burrito Bowls</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil, divided\n\n\n1 (14 ounce) package extra-firm tofu, drained\n\n\n½ teaspoon salt\n\n\n  black pepper to taste\n\n\n1 ½ teaspoons onion powder\n\n\n1 ½ teaspoons garlic powder\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon fresh lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 cup finely diced red onion\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ teaspoon salt\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped tomatoes\n\n\n1 ½ teaspoons cumin\n\n\n¼ cup chopped fresh cilantro\n\n\n1 tablespoon fresh lemon juice\n\n\n1 (15.5 ounce) can no-salt-added black beans, drained and rinsed\n\n\n1 ½ cups cooked hash brown potatoes\n\n\n1  avocado - peeled, pitted and sliced\n\n\n1 teaspoon fresh lemon juice\n\n\n¼ cup chopped fresh cilantro\n\n\n1 teaspoon hot sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil, divided\n\n\n1 (14 ounce) package extra-firm tofu, drained\n\n\n½ teaspoon salt\n\n\n  black pepper to taste\n\n\n1 ½ teaspoons onion powder\n\n\n1 ½ teaspoons garlic powder\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon fresh lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 cup finely diced red onion\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ teaspoon salt\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped tomatoes\n\n\n1 ½ teaspoons cumin\n\n\n¼ cup chopped fresh cilantro\n\n\n1 tablespoon fresh lemon juice\n\n\n1 (15.5 ounce) can no-salt-added black beans, drained and rinsed\n\n\n1 ½ cups cooked hash brown potatoes\n\n\n1  avocado - peeled, pitted and sliced\n\n\n1 teaspoon fresh lemon juice\n\n\n¼ cup chopped fresh cilantro\n\n\n1 teaspoon hot sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a large, heavy skillet over medium-high heat. Add 2 tablespoons oil. Break tofu apart over skillet into bite-size pieces, sprinkle with salt and pepper, then cook, stirring frequently with a thin metal spatula, until liquid cooks out and tofu browns, about 10 minutes. (If you notice liquid collecting in pan, increase heat to evaporate water.) Be sure to get under the tofu when you stir, scraping the bottom of the pan where the good, crispy stuff is and keeping it from sticking."},{"recipe_directions":"Add onion and garlic powders, turmeric, juice, and remaining tablespoon oil and toss to coat. Cook 5 minutes more."},{"recipe_directions":"Preheat a heavy-bottomed saucepan over medium-high heat. Add oil. Cook onion and jalapenos with a pinch of salt, stirring, until translucent, about 5 minutes, Add garlic and cook, stirring, until fragrant, about 30 seconds. Add tomatoes, cumin, and remaining salt, and cook, stirring, until tomatoes become saucy, about 5 minutes. Add cilantro and lemon juice. Let cilantro wilt in. Add beans and heat through, stirring occasionally, about 2 minutes. Taste for salt and seasoning."},{"recipe_directions":"Spoon some hash browns into each bowl, followed by a scoop of beans and a scoop of scramble. Top with avocado, a squeeze of fresh lemon juice, and a sprinkle of cilantro. Serve with hot sauce."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"579\nCalories\n\n\n40g \nFat\n\n\n57g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656460-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ery7B55a3L9Y5tf_PUx3F65yP3A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(979x1019:981x1021):format(webp)/4559474-vegetarian-sushi-Buckwheat-Queen-4x3-1-af11cac7218240e383dbe72ef6b1ec8f.jpg"
@@ -2551,59 +2748,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221920/vegetarian-sushi/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Vegetarian Sushi</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 sushi rolls"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups uncooked short-grain white rice\n\n\n1 ½ cups water\n\n\n⅓ cup red wine vinegar\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt\n\n\n½  avocado - peeled, pitted, and thinly sliced\n\n\n1 teaspoon lemon juice\n\n\n¼ cup sesame seeds, or as needed\n\n\n½  cucumber - peeled, seeded, and cut into matchsticks\n\n\n½  green bell pepper, seeded and cut into matchsticks\n\n\n½  zucchini, cut into matchsticks"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups uncooked short-grain white rice\n\n\n1 ½ cups water\n\n\n⅓ cup red wine vinegar\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt\n\n\n½  avocado - peeled, pitted, and thinly sliced\n\n\n1 teaspoon lemon juice\n\n\n¼ cup sesame seeds, or as needed\n\n\n½  cucumber - peeled, seeded, and cut into matchsticks\n\n\n½  green bell pepper, seeded and cut into matchsticks\n\n\n½  zucchini, cut into matchsticks'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place rice and water in a saucepan over high heat, bring to a boil, and reduce heat to very low. Cover with a tight-fitting lid and simmer rice until water is absorbed, about 15 minutes. Remove rice from heat and allow to stand covered for 10 minutes."},{"recipe_directions":"Mix red wine vinegar, sugar, and salt in a bowl until sugar has dissolved. Fluff rice with a fork and transfer into a large bowl; pour vinegar mixture into the rice and stir to coat rice. Spread rice out onto a large piece of parchment paper and fan the rice until cool. Cover rice with damp paper towels."},{"recipe_directions":"Sprinkle avocado slices with lemon juice in a bowl."},{"recipe_directions":"Spread a thin layer of sesame seeds onto a sushi mat. Pick up about half a cup of cooled rice and place onto sushi mat in an even layer. Place 1/4 of the cucumber, avocado slices, bell pepper, and zucchini in a line down the middle of the rice."},{"recipe_directions":"Pick up the edge of the sushi mat, fold the bottom edge of the sheet up, enclosing the filling, and tightly roll the sushi into a thick cylinder. Once the sushi is rolled, wrap it in the mat and gently squeeze to compact it tightly. Repeat with remaining ingredients to made 4 rolls. Place rolls on a serving plate, slice into 6 or 8 pieces per roll, and cover with damp paper towels until serving time."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n9g \nFat\n\n\n70g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656463-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7e_oHoenGkroX-MybHVww9Tl-M8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/111568-bd2604250e31490091c60efccb9e604e.jpg"
@@ -2616,59 +2809,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20350/moong-dal/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Moong Dal</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups moong dal (split husked mung beans)\n\n\n2 ½ cups water\n\n\n1 ½ teaspoons salt\n\n\n½ teaspoon grated fresh ginger root\n\n\n1 teaspoon diced jalapeno chile pepper\n\n\n½ cup diced tomatoes\n\n\n3 teaspoons lemon juice\n\n\n½ teaspoon ground turmeric\n\n\n2 teaspoons vegetable oil\n\n\n1 teaspoon cumin seed\n\n\n½  dried red chile pepper\n\n\n1 pinch Asafoetida\n\n\n2 cloves garlic, finely chopped\n\n\n¼ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups moong dal (split husked mung beans)\n\n\n2 ½ cups water\n\n\n1 ½ teaspoons salt\n\n\n½ teaspoon grated fresh ginger root\n\n\n1 teaspoon diced jalapeno chile pepper\n\n\n½ cup diced tomatoes\n\n\n3 teaspoons lemon juice\n\n\n½ teaspoon ground turmeric\n\n\n2 teaspoons vegetable oil\n\n\n1 teaspoon cumin seed\n\n\n½  dried red chile pepper\n\n\n1 pinch Asafoetida\n\n\n2 cloves garlic, finely chopped\n\n\n¼ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse the dal, checking for any debris; add to saucepan with 2 1/2 cups water. Allow to soak for 30 minutes."},{"recipe_directions":"Bring dal, water, and salt to a boil. Reduce heat to medium-low and cook until beans are very tender and mixture has thickened, 15 to 20 minutes. Add more water, if necessary, to prevent drying out. Stir in ginger, jalapeno pepper, tomato, lemon juice, and turmeric."},{"recipe_directions":"Heat oil in a small saucepan and add cumin seed and red chile pepper. When pepper is heated, add Asafoetida powder and garlic. Stir mixture into split peas and add cilantro; mix well."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"330\nCalories\n\n\n3g \nFat\n\n\n57g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656468-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4iwaGNZRrxfZ0SbqGjzGzR6lpsI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7844651-f4db025425ad413e8e607df1af514671.jpg"
@@ -2681,59 +2870,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278192/air-fryer-tofu/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Air Fryer Tofu</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces firm tofu\n\n\n1 tablespoon low-sodium soy sauce (such as Bragg®)\n\n\n1 tablespoon olive oil\n\n\n1 large clove garlic, finely chopped\n\n\n½ teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces firm tofu\n\n\n1 tablespoon low-sodium soy sauce (such as Bragg®)\n\n\n1 tablespoon olive oil\n\n\n1 large clove garlic, finely chopped\n\n\n½ teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tofu onto a plate lined with several paper towels. Cover with more paper towels and another plate. Set a 3- to 5-pound weight on top and press tofu for 30 minutes; drain and discard any accumulated liquid and cut tofu into 1/2-inch cubes."},{"recipe_directions":"Combine soy sauce, olive oil, garlic, and sesame oil in a small bowl; mix well. Add tofu cubes and marinate for 15 to 20 minutes."},{"recipe_directions":"Preheat an air fryer to 350 degrees F (180 degrees C)."},{"recipe_directions":"Place tofu in a single layer in the air fryer basket."},{"recipe_directions":"Air fry for 5 minutes without shaking the fryer. Continue air frying, shaking occasionally, until browned, about 10 more minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"122\nCalories\n\n\n9g \nFat\n\n\n3g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656471-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_KPdABBkqcLS2RCwqOXH15uaqwA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6348017-e48b9ce440a84adfa847f69530999b2e.jpg"
@@ -2746,59 +2931,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13982/quick-and-easy-vegetable-curry/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Quick and Easy Vegetable Curry</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n5 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves crushed garlic\n\n\n2 ½ tablespoons curry powder\n\n\n2 tablespoons tomato paste\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 cube vegetable bouillon\n\n\n1 (10 ounce) package frozen mixed vegetables\n\n\n1 ½ cups water\n\n\n  salt and pepper to taste\n\n\n2 tablespoons chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves crushed garlic\n\n\n2 ½ tablespoons curry powder\n\n\n2 tablespoons tomato paste\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 cube vegetable bouillon\n\n\n1 (10 ounce) package frozen mixed vegetables\n\n\n1 ½ cups water\n\n\n  salt and pepper to taste\n\n\n2 tablespoons chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan over medium-high, heat oil and saute onion, and garlic until golden. Stir in curry powder and tomato paste, cook 2 to 3 minutes."},{"recipe_directions":"Stir in tomatoes, vegetable bouillon cube, mixed vegetables, water, salt and pepper to taste. Cook approximately 30 minutes until vegetables are well done (not crunchy). Sprinkle with fresh cilantro prior to serving."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Curries"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"103\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656474-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xSfdXvawvOScQsacGzPGct80GL8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(438x0:440x2):format(webp)/5150909-b75e49352b2043e1a31b7c4f967d91dd.jpg"
@@ -2810,59 +2991,55 @@
 25 Daniel Fast Dinner Ideas</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/daniel-fast-dinner-recipes/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>25 Daniel Fast Dinner Ideas</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"At first glance, the Daniel Fast can seem quite restrictive. This 21-day, Bible-based fast is similar to a vegan diet, but with no sugar, refined carbs, caffeine, or alcohol. However you may be surprised at how many different meals you can enjoy while on the Daniel Fast. Here you'll find more than enough Daniel Fast dinner recipes for the three week-long diet, and we're willing to bet you'll keep a few of them on hand for your regular dinner rotation as well."},{"recipe_directions":"Potatoes, zucchini, red onions, and tomatoes make up the bulk of this simple vegan dish. \"It is a typical example of Greek cuisine where a few simple ingredients are turned into an utterly delicious dish with little effort,\" says recipe creator Diana Moutsopoulos."},{"recipe_directions":"Zucchini boats are a great way to use up your zucchini bumper crop, and this recipe uses chickpeas instead of the typical ground meat filling for a healthy, Daniel Fast-approved dinner."},{"recipe_directions":"These simple black bean burgers are super budget friendly with a short, low-cost ingredient list. Just be sure to use vegan Worcestershire sauce and serve on lettuce or whole grain buns to keep it Daniel Fast friendly."},{"recipe_directions":"Just because you're fasting doesn't mean you have to limit yourself to bland, boring meals. This flavorful 30-minute curry is the perfect plant-based dinner for busy weeknights."},{"recipe_directions":"A robust chickpea curry is served over crispy potato pancakes in this Indian feast. Serve with cilantro chutney."},{"recipe_directions":"Here's another vegan Indian dish packed with fresh vegetables and flavorful spices. The beautiful thing about curry is you can be flexible with ingredients depending on your preferences."},{"recipe_directions":"So many flavors meld beautifully in this Instant Pot stew. Some reviewers suggest thinning it out with a little broth or water before cooking."},{"recipe_directions":"This colorful sheet pan dinner is as easy as it is nutritious. Baby potatoes, green beans, chickpeas, and tomatoes are seasoned with basil and roasted to perfection."},{"recipe_directions":"Roasting root vegetables gives them a sweet, caramelized flavor, and adding chickpeas to the mix makes it a well-balanced meal."},{"recipe_directions":"Arakas Latheros, which literally translates to \"oiled peas,\" is a traditional Greek dish that uses olive oil as the main source of fat, according to recipe creator Diana Moutsopoulos. However, this version uses less olive oil and more tomato to compensate, making it a veggie-forward, Daniel Fast-friendly dinner."},{"recipe_directions":"Healthy whole grains like buckwheat are a great source of protein while on the Daniel Fast. You won't miss the meat in these hearty, buckwheat-stuffed peppers!"},{"recipe_directions":"Hearty soups, stews, and chilis are where the Instant Pot really shines, and you can still enjoy these comfort food classics while on the Daniel Fast."},{"recipe_directions":"Recreate this favorite pasta dish with the help of spaghetti squash and your Instant Pot. \"How about a one-pot meatless dinner?\" says recipe creator and Allrecipes Allstar Bibi. \"Use two different functions on your Instant Pot to create a colorful, tasty, low-carb dinner.\""},{"recipe_directions":"Here's a great alternative to grilled chicken breasts: Tofu slices are marinated in a mixture of tamari (fermented soy sauce) and garlic and pan-fried until golden brown."},{"recipe_directions":"In this straightforward dish, potatoes, onions, and cauliflower are simmered in coconut milk. Serve over brown rice or any whole grain of your choice."},{"recipe_directions":"\"This authentic Algerian potato stew is made with dersa, a spicy chile and garlic paste...An easy way to enjoy North African cuisine at home with easy-to-find ingredients!\" says recipe creator Djam."},{"recipe_directions":"Black chana, or black chickpeas, have a slightly nuttier flavor and a firmer texture than their beige-colored counterparts. Allrecipes Allstar Buckwheat Queen describes this recipe as a, \"Fragrant and flavorful dish that doesn't hide the taste of the black chana.\""},{"recipe_directions":"Make kale a meal by sautéing it with potatoes, onion, and garlic. You can easily play around with this recipe and add whatever fresh veggies you have on hand."},{"recipe_directions":"When autumn rolls around you'll want to make this seasonal curry made with fresh pumpkin, red curry paste, and coconut milk."},{"recipe_directions":"Tempeh has a naturally nutty flavor and is richer in protein and fiber than tofu, making it an excellent meat substitute while on the Daniel Fast."},{"recipe_directions":"These lemon-dill zoodles are tossed with roasted radishes for a meal that screams spring. Roasting radishes curbs their bite and brings out their sweet flavor: \"It's a bit of extra work having to roast the radishes and onions in the oven, but well worth it because of the added flavor,\" says Allrecipes Allstar France C."},{"recipe_directions":"Nope, it's not too good to be true. You really can enjoy mac and cheese while on the Daniel Fast. Whole wheat pasta and broccoli are tossed in a creamy, plant-based sauce."},{"recipe_directions":"\"We call this a boost bowl because it is packed with vegan/vegetarian fuel, giving your body a break from animal protein,\" says recipe creator The Pretty Feed. \"If you've been slacking on your vegetable intake this is a great way to make up for it.\""},{"recipe_directions":"\"This is a vegan adaptation of traditional Italian creamy polenta and thick ragu full of vegetable proteins,\" says recipe creator Buckwheat Queen. \"Bake leftover polenta slices and top with any leftover ragu for bite-sized appetizers.\""},{"recipe_directions":"Potato gnocchi is the perfect work around when you're looking to curb your pasta cravings. Here it's served with a fresh, homemade tomato sauce."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Main Dishes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656477-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3lLGeIkK1-e9BNpGbfrFwjA4lA0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2930576-7a9be221de1c46faabfc4a50da88eb37.jpg"
@@ -2875,59 +3052,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34689/chickpea-curry/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Chickpea Curry</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n2  onions, minced\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons fresh ginger root, finely chopped\n\n\n6  whole cloves\n\n\n2 (2 inch) sticks cinnamon, crushed\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n  salt\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon ground turmeric\n\n\n2 (15 ounce) cans garbanzo beans\n\n\n1 cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n2  onions, minced\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons fresh ginger root, finely chopped\n\n\n6  whole cloves\n\n\n2 (2 inch) sticks cinnamon, crushed\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n  salt\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon ground turmeric\n\n\n2 (15 ounce) cans garbanzo beans\n\n\n1 cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large frying pan over medium heat, and fry onions until tender."},{"recipe_directions":"Stir in garlic, ginger, cloves, cinnamon, cumin, coriander, salt, cayenne, and turmeric. Cook for 1 minute over medium heat, stirring constantly. Mix in garbanzo beans and their liquid. Continue to cook and stir until all ingredients are well blended and heated through. Remove from heat. Stir in cilantro just before serving, reserving 1 tablespoon for garnish."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"135\nCalories\n\n\n5g \nFat\n\n\n21g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656482-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rwZN38MDn2Rnr-sZ1S43Rnz-QMs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/5225503-ef4cb562267d4db186468e8d0350a72a.jpg"
@@ -2940,59 +3113,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263337/vegan-chickpea-curry-without-coconut-milk/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Vegan Chickpea Curry without Coconut Milk</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (15 ounce) cans chickpeas\n\n\n1 tablespoon baking soda\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, finely chopped\n\n\n1 teaspoon ginger-garlic paste\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon garam masala\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n2 (10 ounce) packages frozen chopped spinach, thawed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (15 ounce) cans chickpeas\n\n\n1 tablespoon baking soda\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, finely chopped\n\n\n1 teaspoon ginger-garlic paste\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon garam masala\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n2 (10 ounce) packages frozen chopped spinach, thawed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Drain and rinse chickpeas under cold running water. Place in a bowl, cover with cold water, and stir in baking soda. Soak for 10 minutes. Drain and rinse thoroughly."},{"recipe_directions":"Heat oil in a pot and cook onion until soft and translucent, about 5 minutes. Stir in garlic-ginger paste, cayenne, salt, turmeric, and garam masala. Cook and stir until spices are well absorbed by the onion, about 2 minutes."},{"recipe_directions":"Add tomatoes and frozen spinach; stir to combine. Add chickpeas and stir gently. Simmer until flavors are well combined, about 20 minutes. Add a little water if sauce is too thick."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"African"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"286\nCalories\n\n\n6g \nFat\n\n\n47g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656485-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XaOFWWbO-iDbNe2osUBe9SmIOwc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1726x0:1728x2):format(webp)/7916774-31f0b5eb367c4922a12e7b0b49400612.jpg"
@@ -3005,59 +3174,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279441/mexican-black-beans-and-rice/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Mexican Black Beans and Rice</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons coconut oil\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n2 stalks celery, chopped\n\n\n1  tomato, chopped\n\n\n½ cup frozen corn\n\n\n2 teaspoons chopped fresh oregano\n\n\n2 teaspoons chopped fresh cilantro\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n½ cup mild salsa\n\n\n¼ cup water, or as needed\n\n\n2 cups cooked white rice\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons coconut oil\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n2 stalks celery, chopped\n\n\n1  tomato, chopped\n\n\n½ cup frozen corn\n\n\n2 teaspoons chopped fresh oregano\n\n\n2 teaspoons chopped fresh cilantro\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n½ cup mild salsa\n\n\n¼ cup water, or as needed\n\n\n2 cups cooked white rice\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat coconut oil in a large skillet over medium-low heat. Add chili powder, garlic powder, cumin, and coriander; fry until fragrant, about 30 seconds. Add celery, cook and stir until softened, 3 to 5 minutes."},{"recipe_directions":"Add tomato, frozen corn, oregano, and cilantro; stir to coat. Stir in black beans and salsa. Bring to a simmer and cook for 10 to 15 minutes, adding water as needed to keep the mixture saucy."},{"recipe_directions":"Remove from the heat and stir in cooked rice until coated. Season with salt."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n8g \nFat\n\n\n50g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656490-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NFLDuaVcdICHkBaG_cwPRvMRG4w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/52232aloo-matarDanielleStadelmanRDN4x3-240f1fd170da4ce89e01f0302eb4247c.jpg"
@@ -3071,59 +3236,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52232/aloo-matar/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Aloo Matar</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup vegetable oil\n\n\n2 medium onions, finely chopped\n\n\n1 tablespoon ginger garlic paste\n\n\n1  bay leaf\n\n\n4 large potatoes, peeled and chopped\n\n\n1 cup frozen peas\n\n\n½ cup tomato puree\n\n\n1 ½ teaspoons garam masala\n\n\n1 ½ teaspoons paprika\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n2 tablespoons chopped cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup vegetable oil\n\n\n2 medium onions, finely chopped\n\n\n1 tablespoon ginger garlic paste\n\n\n1  bay leaf\n\n\n4 large potatoes, peeled and chopped\n\n\n1 cup frozen peas\n\n\n½ cup tomato puree\n\n\n1 ½ teaspoons garam masala\n\n\n1 ½ teaspoons paprika\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n2 tablespoons chopped cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a wok over medium heat. Stir in the onions, ginger garlic paste, and bay leaf. Cook until the onions are tender. Mix in the potatoes and peas. Cover and cook until the potatoes are tender, about 15 minutes. Remove the bay leaf."},{"recipe_directions":"Stir the tomato puree, garam masala, paprika, sugar, and salt into the vegetable mixture. Continue cooking about 10 minutes. Mix in the cilantro and continue cooking about 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"487\nCalories\n\n\n15g \nFat\n\n\n82g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656495-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ab8pVF0TrYVRfW1WvE-DDaGG3lk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7123953-56848a6299ff4bab8fcdf10ed001b6c3.jpg"
@@ -3136,59 +3297,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/165190/spicy-vegan-potato-curry/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Spicy Vegan Potato Curry</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, peeled and cubed\n\n\n2 tablespoons vegetable oil\n\n\n1  yellow onion, diced\n\n\n3 cloves garlic, minced\n\n\n4 teaspoons curry powder\n\n\n4 teaspoons garam masala\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons salt\n\n\n1 (1 inch) piece fresh ginger root, peeled and minced\n\n\n1 ½ teaspoons cayenne pepper\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), rinsed and drained\n\n\n1 (15 ounce) can peas, drained\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14 ounce) can coconut milk"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, peeled and cubed\n\n\n2 tablespoons vegetable oil\n\n\n1  yellow onion, diced\n\n\n3 cloves garlic, minced\n\n\n4 teaspoons curry powder\n\n\n4 teaspoons garam masala\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons salt\n\n\n1 (1 inch) piece fresh ginger root, peeled and minced\n\n\n1 ½ teaspoons cayenne pepper\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), rinsed and drained\n\n\n1 (15 ounce) can peas, drained\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14 ounce) can coconut milk'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes into a large pot and cover with salted water. Bring to a boil, then reduce heat to medium-low, cover, and simmer until just tender, about 15 minutes. Drain and allow to steam dry for 1 to 2 minutes."},{"recipe_directions":"Meanwhile, heat oil in a large skillet over medium heat. Cook and stir onion and garlic in hot oil until onion has softened and turned translucent, about 5 minutes. Season with curry powder, garam masala, cumin, salt, ginger, and cayenne pepper; cook and stir for 2 minutes more."},{"recipe_directions":"Add cooked potatoes, garbanzo beans, peas, and tomatoes. Pour in coconut milk; bring to a simmer and continue cooking for 5 to 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"407\nCalories\n\n\n20g \nFat\n\n\n51g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656501-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zmwhx16wu1Nr7JsjNa8cwFdcZwg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(899x0:901x2):format(webp)/5374301-jackfruit-pulled-pork-Buckwheat-Queen-4x3-1-4a7c472a1483483fb98f234a9c9e1082.jpg"
@@ -3202,59 +3359,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256663/jackfruit-pulled-pork/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Jackfruit Pulled "Pork"</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 6 hrs 15 mins\n\n\nTotal Time:\n 6 hrs 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n¼ cup chopped Vidalia onion\n\n\n3 cloves garlic, minced\n\n\n3 pounds young green jackfruit packed in water, drained\n\n\n2 cups barbecue sauce, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n¼ cup chopped Vidalia onion\n\n\n3 cloves garlic, minced\n\n\n3 pounds young green jackfruit packed in water, drained\n\n\n2 cups barbecue sauce, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Add onion and garlic and sauté until slightly softened, about 3 minutes. Add jackfruit; cook and stir until lightly browned and relatively free of moisture, about 10 minutes."},{"recipe_directions":"Transfer jackfruit mixture to a slow cooker and cover with barbecue sauce. Cover and cook on Low, stirring occasionally, until jackfruit shreds easily with a fork, about 6 hours."},{"recipe_directions":"You can use jackfruit in brine, but it's harder to flavor. Don't use the ripe kind that comes in syrup. If using frozen jackfruit, defrost it before using, then rinse to remove all seeds and pods. Squeeze out as much water as possible with your hands."},{"recipe_directions":"You can use a dry rub or marinate the jackfruit in barbecue sauce or seasonings before cooking if you like. This will help if you use the brined version."},{"recipe_directions":"If you don't have a slow cooker, cook jackfruit in a skillet (preferably cast iron) until easily shredded, about 2 hours."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n8g \nFat\n\n\n32g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656506-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6pSLsRv9zlubFSw7HPDfpapj4LM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4579571-ab393614f335475983f746db56abd352.jpg"
@@ -3267,59 +3420,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246227/tofu-stir-fry-with-peanut-sauce-vegan/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Tofu Stir-Fry with Peanut Sauce (Vegan)</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can light coconut milk\n\n\n¼ cup peanut butter\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon lime juice\n\n\n1 teaspoon Sriracha sauce\n\n\n½ teaspoon ground chili pepper\n\n\n1 tablespoon olive oil\n\n\n2  carrots, diced\n\n\n1  red bell pepper, diced\n\n\n1 (14 ounce) package firm tofu, drained and cut into 1-inch cubes\n\n\n4  garlic cloves, minced\n\n\n2 tablespoons minced fresh ginger\n\n\n4 cups baby spinach\n\n\n1 ½ cups cooked brown rice"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can light coconut milk\n\n\n¼ cup peanut butter\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon lime juice\n\n\n1 teaspoon Sriracha sauce\n\n\n½ teaspoon ground chili pepper\n\n\n1 tablespoon olive oil\n\n\n2  carrots, diced\n\n\n1  red bell pepper, diced\n\n\n1 (14 ounce) package firm tofu, drained and cut into 1-inch cubes\n\n\n4  garlic cloves, minced\n\n\n2 tablespoons minced fresh ginger\n\n\n4 cups baby spinach\n\n\n1 ½ cups cooked brown rice'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk coconut milk, peanut butter, soy sauce, brown sugar, lime juice, Sriracha sauce, and ground chili pepper together in a bowl until a smooth sauce forms."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Add carrots and bell pepper; sauté until just tender, 1 to 2 minutes. Add tofu and sauté until lightly browned, about 4 minutes per side. Add garlic and ginger; cook and stir until fragrant, about 30 seconds."},{"recipe_directions":"Pour sauce into the skillet and stir to coat tofu and vegetables. Cook until flavors combine, about 5 minutes. Reduce the heat to low, then stir in spinach, 1 cup at a time, until wilted. Serve over brown rice."},{"recipe_directions":"The best way to drain tofu is to freeze it ahead of time, then let it defrost on paper towels to soak up the water. If you don't have time to freeze it, carefully squeeze it between your palms over the sink and let it drain on paper towels until you're ready to cook. The more you drain it ahead of time, the faster it will brown in the pan."},{"recipe_directions":"This recipe works just as well with chicken. You can also use different kinds of peanut butter for different flavor and texture in the sauce."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stir-Fry"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n26g \nFat\n\n\n39g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656511-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WoBBOdMJX4TFzunPH4kKDMo_Khg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/259870-briam-greek-baked-zucchini-and-potatoes-ddmfs-3X4-0250-dd806edf8bdf48b2ba841bf59d3a8b9e.jpg"
@@ -3333,59 +3482,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259870/briam-greek-baked-zucchini-and-potatoes/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Briam (Greek Baked Zucchini and Potatoes)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds potatoes, peeled and thinly sliced\n\n\n4 medium zucchini, thinly sliced\n\n\n4 small red onions, thinly sliced\n\n\n6 ripe tomatoes, puréed\n\n\n½ cup extra-virgin olive oil\n\n\n2 tablespoons chopped fresh parsley (Optional)\n\n\n  sea salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds potatoes, peeled and thinly sliced\n\n\n4 medium zucchini, thinly sliced\n\n\n4 small red onions, thinly sliced\n\n\n6 ripe tomatoes, puréed\n\n\n½ cup extra-virgin olive oil\n\n\n2 tablespoons chopped fresh parsley (Optional)\n\n\n  sea salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Spread potatoes, zucchini, and red onions in an extra-large baking dish (9x13-inch or larger, or 2 baking dishes)."},{"recipe_directions":"Cover with puréed tomatoes, olive oil, and parsley; season liberally with sea salt and pepper. Toss until vegetables are evenly coated."},{"recipe_directions":"Bake in the preheated oven for 1 hour. Stir gently, then continue baking until vegetables are tender and moisture has evaporated, about 30 minutes more."},{"recipe_directions":"Cool briam slightly before serving or serve at room temperature."},{"recipe_directions":"You can purée the tomatoes by cutting them in half and grating them on a large box grater, leaving the skin behind."},{"recipe_directions":"This might seem like a lot of time in the oven, but trust me. The bulk of the flavor is derived from this, and you definitely want some nice crusty and charred edges on your vegetables for maximum flavor."},{"recipe_directions":"Don't be afraid of salt and pepper with this dish. Be liberal for best results. Start as you normally would, and you can always add more seasoning when you check after the 1-hour mark."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Greek"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"534\nCalories\n\n\n28g \nFat\n\n\n66g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656516-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wKuat9gZxVbksCCjKyGmwniJ6Ps=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4981697-2000-45d4520f162d4306873ff4810e107123.jpg"
@@ -3397,59 +3542,55 @@
 17 Easy Vegan Dinner Recipes for Quick Weeknight Meals</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/easy-vegan-dinners/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>17 Easy Vegan Dinner Recipes for Quick Weeknight Meals</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Tracking down easy vegan recipes for dinner isn't always so simple. That's why we've done the work for you, gathering together vegan dinner ideas that are simple, fast, and flavorful. These recipes also offer plenty of variety, ranging from stir-fries to soups and Korean to Tex-Mex."},{"recipe_directions":"This easy vegan burger gets it done with black beans. You'll combine black beans and whole wheat bread crumbs with flavorful spices and colorful veggies, then bake the burgers in the the oven. \"Nice and easy,\" raves Grace. \"I made it gluten free by substituting cooked brown rice for the whole wheat bread, with great results.\""},{"recipe_directions":"An easy vegan chili with kidney beans, lentils, corn, potato, and tomatoes; It doesn't take much prep or time to cook, and is maybe even tastier the next day. \"I like to serve soy yogurt with the chili, especially if it's too spicy,\" says ortmannnicole888. \"Leftovers taste great with noodles as pasta sauce.\" This is one of the high-protein vegan recipes on this list, with 24 grams per serving (or 48 percent of your daily value). It's also high in fiber with 27 grams."},{"recipe_directions":"Broccoli, snow peas, carrots, and green beans quickly sizzle in the skillet with garlic, ginger, and soy sauce. Serve over your favorite rice. \"It has a mild ginger flavor that can be enhanced according to taste,\" says veggigoddess. \"It's filling yet light on the tummy! Tofu may be added. Serve over a bed of steamed jasmine rice.\""},{"recipe_directions":"This vegan enchilada casserole takes just minutes to put together. It's a quick, hearty dinner of seitan, vegan cheese, refried beans, rice, and tortillas in a simple enchilada sauce. It's among the higher-protein vegan recipes on the list with almost 22 grams of protein per serving."},{"recipe_directions":"\"This simple, clean eating lentil soup with brown lentils is vegan and tastes great,\" says gartenfee. \"You'll be amazed how much flavor you get just with vegetables, legumes, and herbs.\""},{"recipe_directions":"This quick-and-easy vegan taco recipe uses seasoned chickpeas to make a fabulous filling for taco shells or tostadas. These are \"quick healthy vegan tacos that even the kids will go crazy for,\" says Dana D."},{"recipe_directions":"This vegan curry recipe combines lots of spices with cubed potatoes, peas, garbanzo beans, and coconut milk. \"Without a doubt the best vegetarian curry I've tried,\" says KEZ. \"I started off with half the recommended amounts of spices and then added more after tasting. A definite make-again."},{"recipe_directions":"\"This quick and easy vegan meatloaf with mushrooms and brown lentils is full of flavor,\" says Fioa. \"It's a fabulous plant-based, family-friendly version of the classic recipe.\""},{"recipe_directions":"This vegan split pea soup is light yet filling. \"The soup was full of flavor and never scorched,\" says Buckwheat Queen. \"Thick but not too much. I added other fresh veggies and used chana dahl (split yellow peas). I also used Sriracha instead of ketchup.\""},{"recipe_directions":"This vegan dinner is ready in 20 minutes—and \"deliciously addictive,\" according to reviewer Maria."},{"recipe_directions":"This vegan pho recipe features delicious vegan ingredients like rice noodles, mushrooms, bean sprouts, limes, cilantro, basil, and green onions in a vegetable broth flavored with lemongrass and star anise. \"The broth is very basic,\" says LindsayRose5, \"and then each person seasons and garnishes it according to their individual tastes. There is no right way to season and garnish this dish.\" It's a comforting addition to your vegan diet."},{"recipe_directions":"\"Korean meets vegan in this quick and easy japchae recipe,\" says Melissa. \"It's a chewy and crunchy medley of glass noodles, spinach, mushrooms, green onions, and carrots -- a delicious vegan Korean noodle dish that is typically served cold, but is also very good hot!\""},{"recipe_directions":"\"This delicious vegan dish is perfect for when you don't have much time,\" says MyNutriCounter. \"For this dish, we've used a mix of carrots, onions, parsnips, and Brussels sprouts with chickpeas and quinoa, but other veggies you could try are: cauliflower, olives, tomatoes, sweet potato, spinach, or kale.\""},{"recipe_directions":"Ready in about 40 minutes, \"this is a quick and easy vegetable stir-fry, perfect to use up whatever fresh vegetables you have in your fridge,\" says Rita. \"I used purple cauliflower because it looks so pretty but regular cauliflower works as well of course.\""},{"recipe_directions":"Healthy vegan comfort food for two! \"This simple dish of beans and rice is tasty, and helps cleanse the body and heal digestion for all body types,\" says Roxy. \"I also love this dish for an easy, healthy, pantry meal I can throw together when I have nothing else in the house. Top with ghee, salt, liquid aminos, or whatever you like.\""},{"recipe_directions":"\"When you're short on time and need something nutritious for dinner, this quick vegan mapo tofu will certainly satisfy,\" says MyNutriCounter. \"This is an authentic Sichuan-style mapo tofu, which is both spicy and aromatic.\""},{"recipe_directions":"This creamy, delicious vegan soup features lentils, squash, coconut milk, and spices. \"This recipe takes soup to a whole new level,\" says kate. \"Coconut milk instead of cream is brilliant, and its fragrance perfectly complements the squash and lentils.\""}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Main Dishes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656520-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kZu1Z1nnivxfDduLZrtDwhaiQXs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3841093-taameya-egyptian-falafel-Christina-4x3-1-d2303bbfa77c401cbd463df0c2995010.jpg"
@@ -3463,59 +3604,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254743/taameya-egyptian-falafel/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Ta'ameya (Egyptian Falafel)</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 35 mins\n\n\nServings:\n10 \n\n\nYield:\n50 falafel"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups dried split fava beans\n\n\n1  red onion, quartered\n\n\n½ cup fresh parsley\n\n\n½ cup fresh cilantro\n\n\n½ cup fresh dill\n\n\n3 cloves garlic\n\n\n1 ½ teaspoons ground coriander\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon ground cumin\n\n\n1 cup sesame seeds (Optional)\n\n\n1 quart vegetable oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups dried split fava beans\n\n\n1  red onion, quartered\n\n\n½ cup fresh parsley\n\n\n½ cup fresh cilantro\n\n\n½ cup fresh dill\n\n\n3 cloves garlic\n\n\n1 ½ teaspoons ground coriander\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon ground cumin\n\n\n1 cup sesame seeds (Optional)\n\n\n1 quart vegetable oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place fava beans into large bowl and cover with several inches of water. Let soak, 8 hours to overnight. Drain."},{"recipe_directions":"Combine soaked fava beans, red onion, parsley, cilantro, dill, garlic, coriander, salt, and cumin in a food processor; process to a dough-like consistency."},{"recipe_directions":"Heat a skillet over medium heat. Add sesame seeds; cook, stirring occasionally, until toasted, about 5 minutes. Transfer to a large plate."},{"recipe_directions":"Shape fava bean mixture into about 50 balls. Roll balls in sesame seeds to coat."},{"recipe_directions":"Fill a large saucepan 1/4 full with oil; heat over medium heat. Fry fava bean balls in batches until golden brown, 3 to 5 minutes per batch. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"African"},{"recipe_tags":"North African"},{"recipe_tags":"Egyptian"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"814\nCalories\n\n\n87g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656525-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/B18TopqzbT3MyhSdVpoYfKgWeis=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(402x279:404x281):format(webp)/3975752-basic-seitan-wheat-meat-vegan-meat-substitute-Shaun-A-Hutchinson-4x3-1-894b649e82a94d8b97957f9682cace78.jpg"
@@ -3529,59 +3666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238521/basic-seitan-wheat-meat-vegan-meat-substitute/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Seitan Wheat Meat (Vegan Meat Substitute)</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n3 \n\n\nYield:\n3 patties"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup vital wheat gluten\n\n\n4 ½ cups vegetable broth, divided\n\n\n¼ cup liquid aminos (such as Bragg®)\n\n\n3 tablespoons nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons minced garlic\n\n\n4 cups water\n\n\n¼ cup tamari"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup vital wheat gluten\n\n\n4 ½ cups vegetable broth, divided\n\n\n¼ cup liquid aminos (such as Bragg®)\n\n\n3 tablespoons nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons minced garlic\n\n\n4 cups water\n\n\n¼ cup tamari'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir wheat gluten, 1/2 cup broth, liquid aminos, nutritional yeast, oil, and garlic together in a bowl until ingredients come together into a ball. Knead until dough has a rubbery texture. Divide dough into 3 equal pieces and shape into 1/2-inch-thick patties."},{"recipe_directions":"Combine remaining 4 cups vegetable broth, water, and tamari in a large pot; bring to a boil. Carefully lower patties into boiling broth; cover the pot and return to a boil. Set the lid slightly askew to vent steam and reduce the heat to low. Continue simmering, turning occasionally, until patties are firm, about 1 hour."},{"recipe_directions":"Remove from the heat and uncover the pot. Allow patties to cool in broth for 15 minutes before serving."},{"recipe_directions":"This recipe makes roughly one pound of seitan. You can store the seitan with the broth in an airtight container in the refrigerator. Don't discard the broth — it makes a rich soup base!"},{"recipe_directions":"The nutrition data for this recipe includes the full amount of broth. The actual amount of broth consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Seitan"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n6g \nFat\n\n\n28g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656531-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dwfSf3nPVbmvW8xw6Ih3wtJBdC8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/342186-savannahs-best-marinated-portobello-mushrooms-ieatwithgusto-4x3-1-ea875b743e32424e9db46fb2a1e2ec06.jpg"
@@ -3595,59 +3728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/169278/savannahs-best-marinated-portobello-mushrooms/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Savannah's Best Marinated Portobello Mushrooms</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup cooking wine\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon olive oil\n\n\n2 cloves garlic, minced\n\n\n2 large portobello mushroom caps"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup cooking wine\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon olive oil\n\n\n2 cloves garlic, minced\n\n\n2 large portobello mushroom caps'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cooking wine, soy sauce, vinegar, oil, and garlic together in the bottom of a baking dish. Place mushroom caps into the baking dish with the gills facing up. Spoon marinade into the cavities, cover with foil, and marinate for 15 minutes."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Bake in the preheated oven for 25 minutes. Flip mushrooms and bake until mushrooms are tender and juicy, about 8 more minutes."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"112\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656537-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/loLKcrci071a-dr9Trh_hyMu8nI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/469107-db9d8225bdfa40f49ca68193ece4e363.jpg"
@@ -3660,59 +3789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13999/quick-black-beans-and-rice/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Quick Black Beans and Rice</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 (15 ounce) can black beans, undrained\n\n\n1 (14.5 ounce) can stewed tomatoes\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n1 ½ cups uncooked instant brown rice"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 (15 ounce) can black beans, undrained\n\n\n1 (14.5 ounce) can stewed tomatoes\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n1 ½ cups uncooked instant brown rice'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil over medium-high in a large saucepan. Add onion; cook and stir until tender. Add beans, tomatoes, oregano, and garlic powder. Bring to a boil."},{"recipe_directions":"Stir in rice. Cover; reduce heat and simmer for 5 minutes. Remove from heat; let stand 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n5g \nFat\n\n\n48g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656542-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E8YSO3MTTt1MlE4wWhafklYt2YI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5610704-3665e2a006ae4376b5903e79f066beb5.jpg"
@@ -3725,59 +3850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241709/baked-tofu/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Baked Tofu</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons agave nectar\n\n\n1 tablespoon toasted sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced fresh ginger\n\n\n1 tablespoon sesame seeds, or to taste\n\n\n1 pound tofu, sliced into 8 even pieces"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons agave nectar\n\n\n1 tablespoon toasted sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced fresh ginger\n\n\n1 tablespoon sesame seeds, or to taste\n\n\n1 pound tofu, sliced into 8 even pieces'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a large baking sheet with cooking spray."},{"recipe_directions":"Whisk soy sauce, agave, sesame oil, garlic, and ginger together in a bowl until evenly combined."},{"recipe_directions":"Gently press tofu pieces to release as much water as possible. Arrange tofu on the prepared baking sheet and brush with 1/2 of the soy mixture."},{"recipe_directions":"Bake in the preheated oven for 30 minutes. Flip tofu and brush with remaining soy mixture. Sprinkle sesame seeds over top. Continue baking until tofu is crisp, about 30 more minutes."},{"recipe_directions":"Remove from the oven and use a spatula to transfer tofu to a wire rack to cool."},{"recipe_directions":"Substitute tamari for soy sauce and brown sugar for the agave if desired."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n10g \nFat\n\n\n12g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656550-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JYVUmosAaJvs0WP3oIEDSCGBQJw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/5483903-vegan-black-bean-burgers-Katherine-Martinelli-4x3-1-616b5f495b5d4feda989bd0348910b40.jpg"
@@ -3791,59 +3912,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222247/vegan-black-bean-burgers/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Vegan Black Bean Burgers</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can black beans, drained and rinsed\n\n\n3  baby carrots, grated (Optional)\n\n\n⅓ cup chopped sweet onion\n\n\n¼ cup minced green bell pepper (Optional)\n\n\n1 tablespoon minced garlic\n\n\n3 tablespoons chile-garlic sauce (such as Sriracha®), or to taste\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon warm water\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon seafood seasoning (such as Old Bay®)\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 slices whole-wheat bread, torn into small crumbs\n\n\n¾ cup unbleached flour, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can black beans, drained and rinsed\n\n\n3  baby carrots, grated (Optional)\n\n\n⅓ cup chopped sweet onion\n\n\n¼ cup minced green bell pepper (Optional)\n\n\n1 tablespoon minced garlic\n\n\n3 tablespoons chile-garlic sauce (such as Sriracha®), or to taste\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon warm water\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon seafood seasoning (such as Old Bay®)\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 slices whole-wheat bread, torn into small crumbs\n\n\n¾ cup unbleached flour, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a baking sheet."},{"recipe_directions":"Mash black beans in a bowl. Add carrots, onion, bell pepper, and garlic; mix well."},{"recipe_directions":"Whisk chile-garlic sauce, cornstarch, water, chili powder, cumin, seafood seasoning, salt, and black pepper together in a separate small bowl."},{"recipe_directions":"Stir chile-garlic sauce mixture into black bean mixture; mix in bread crumbs. Stir flour, 1/4 cup at a time, into bean mixture until a sticky batter forms."},{"recipe_directions":"Spoon mounds of batter onto the prepared baking sheet, about a 3/4-inch thickness per mound; shape into burgers."},{"recipe_directions":"Bake in the preheated oven until cooked in the center and crisp on the outside, about 10 minutes per side."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burger Recipes"},{"recipe_tags":"Veggie"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"264\nCalories\n\n\n1g \nFat\n\n\n52g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656559-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-xf9EmCawYomBDcW94u7xoqi_7A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/24712-ginger-veggie-stir-fry-DDMFS-4X3-3f25aaf303e04c849a71cc1e448dae6d.jpg"
@@ -3857,59 +3974,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24712/ginger-veggie-stir-fry/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Ginger Veggie Stir-Fry</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons vegetable oil, divided\n\n\n2 teaspoons chopped fresh ginger root, divided\n\n\n1 ½ cloves garlic, crushed\n\n\n1 tablespoon cornstarch\n\n\n1 small head broccoli, cut into florets\n\n\n¾ cup julienned carrots\n\n\n½ cup snow peas\n\n\n½ cup halved green beans\n\n\n2 ½ tablespoons water\n\n\n2 tablespoons soy sauce\n\n\n¼ cup chopped onion\n\n\n½ tablespoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons vegetable oil, divided\n\n\n2 teaspoons chopped fresh ginger root, divided\n\n\n1 ½ cloves garlic, crushed\n\n\n1 tablespoon cornstarch\n\n\n1 small head broccoli, cut into florets\n\n\n¾ cup julienned carrots\n\n\n½ cup snow peas\n\n\n½ cup halved green beans\n\n\n2 ½ tablespoons water\n\n\n2 tablespoons soy sauce\n\n\n¼ cup chopped onion\n\n\n½ tablespoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place 2 tablespoons vegetable oil, 1 teaspoon ginger, garlic, and cornstarch in a large bowl; mix until cornstarch is dissolved."},{"recipe_directions":"Add broccoli, carrots, snow peas, and green beans; toss lightly to coat."},{"recipe_directions":"Heat remaining 2 tablespoons vegetable oil in a large skillet or wok over medium heat. Add vegetable mixture and cook for 2 minutes, stirring constantly to prevent burning."},{"recipe_directions":"Stir in water and soy sauce; add onion, salt, and remaining 1 teaspoon ginger. Cook and stir until vegetables are tender but crisp."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n9g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656567-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/--8_g1NCGhBXT0G58LAPuoTavwI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/7989559-4b139ba34ab34cbb926073511f30d88f.jpg"
@@ -3922,59 +4035,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279440/mexican-rice-and-beans/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Mexican Rice and Beans</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 small onion, diced\n\n\n1 small poblano pepper, diced\n\n\n1 clove garlic, chopped\n\n\n1 cup basmati rice\n\n\n2 teaspoons paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon dried oregano\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons tomato paste\n\n\n2 cups vegetable broth\n\n\n1 (14 ounce) can pinto beans, rinsed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 small onion, diced\n\n\n1 small poblano pepper, diced\n\n\n1 clove garlic, chopped\n\n\n1 cup basmati rice\n\n\n2 teaspoons paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon dried oregano\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons tomato paste\n\n\n2 cups vegetable broth\n\n\n1 (14 ounce) can pinto beans, rinsed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a medium pot over medium-high heat. Cook and stir onion, poblano pepper, and garlic in hot oil for 2 to 3 minutes. Add rice and cook, stirring occasionally, until rice is completely coated in oil, about 2 minutes. Season with paprika, cumin, oregano, salt, and black pepper."},{"recipe_directions":"Stir in tomato paste and cook for 1 to 2 minutes. Add vegetable broth and pinto beans. Bring to a boil; reduce heat to low. Cover and simmer until rice is tender, 15 to 20 minutes."},{"recipe_directions":"Remove the pot from the heat, keep covered, and let stand for at least 5 minutes. Fluff with a fork."},{"recipe_directions":"If desired, you can use green bell pepper instead of poblano and chicken broth instead of vegetable broth."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"348\nCalories\n\n\n9g \nFat\n\n\n59g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656575-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/b36Jq7OgfK7QHDCt1efR9oTkRf8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/888014-f94dab3b95ce41ebad1fa04b5539f804.jpg"
@@ -3987,59 +4096,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14009/muesli/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Muesli</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n16 \n\n\nYield:\n8 cups"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ½ cups rolled oats\n\n\n1 cup raisins\n\n\n½ cup toasted wheat germ\n\n\n½ cup wheat bran\n\n\n½ cup oat bran\n\n\n½ cup chopped walnuts\n\n\n¼ cup packed brown sugar\n\n\n¼ cup raw sunflower seeds"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ½ cups rolled oats\n\n\n1 cup raisins\n\n\n½ cup toasted wheat germ\n\n\n½ cup wheat bran\n\n\n½ cup oat bran\n\n\n½ cup chopped walnuts\n\n\n¼ cup packed brown sugar\n\n\n¼ cup raw sunflower seeds'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine oats, raisins, wheat germ, wheat bran, oat bran, walnuts, brown sugar, and sunflower seeds in a large bowl; mix well. Store muesli in an airtight container at room temperature for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n6g \nFat\n\n\n32g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656580-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1661/everyday-cooking/vegan/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IWZ6C7lSbfRCZGm8GrL4cBVzme0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/236564-chana-masala-savory-indian-chick-peas-1x1-673-copy-a575edebc74c40aebebe52cc8be65b05.jpg"
@@ -4053,42 +4158,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236564/chana-masala-savory-indian-chick-peas/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Chana Masala (Savory Indian Chick Peas)</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  onion, chopped\n\n\n1  tomato, chopped\n\n\n1 (1 inch) piece fresh ginger, peeled and chopped \n\n\n4 cloves garlic, chopped, or more to taste\n\n\n1  green chile pepper, seeded and chopped (Optional)\n\n\n3 tablespoons olive oil\n\n\n2  fresh bay leaves\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon coriander powder\n\n\n1 teaspoon garam masala\n\n\n½ teaspoon turmeric powder\n\n\n1 pinch salt to taste\n\n\n  water as needed\n\n\n1 (15 ounce) can chickpeas\n\n\n1 teaspoon fresh cilantro leaves, for garnish, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  onion, chopped\n\n\n1  tomato, chopped\n\n\n1 (1 inch) piece fresh ginger, peeled and chopped \n\n\n4 cloves garlic, chopped, or more to taste\n\n\n1  green chile pepper, seeded and chopped (Optional)\n\n\n3 tablespoons olive oil\n\n\n2  fresh bay leaves\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon coriander powder\n\n\n1 teaspoon garam masala\n\n\n½ teaspoon turmeric powder\n\n\n1 pinch salt to taste\n\n\n  water as needed\n\n\n1 (15 ounce) can chickpeas\n\n\n1 teaspoon fresh cilantro leaves, for garnish, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grind onion, tomato, ginger, garlic, and chile pepper together in a food processor into a paste."},{"recipe_directions":"Heat olive oil in a large skillet over medium heat. Fry bay leaves in hot oil until fragrant, about 30 seconds. Pour the paste into the skillet and cook until the oil begins to separate from the mixture and is golden brown in color, 2 to 3 minutes. Season the mixture with chili powder, coriander, gram masala, turmeric, and salt; cook and stir until very hot, 2 to 3 minutes."},{"recipe_directions":"Stir enough water into the mixture to get a thick gravy; bring to a boil and stir chickpeas into the gravy. Reduce heat to medium and cook until the chickpeas are heated through, 5 to 7 minutes. Garnish with cilantro."},{"recipe_directions":"Serve with a 'Mattar Paneer' recipe to round out this Indian dinner."},{"recipe_directions":"As an optional serving suggestion, use the \"Indian Naan Bread\" recipe instead of rice as a companion to this dish."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"413\nCalories\n\n\n23g \nFat\n\n\n46g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>